--- a/单词.xlsx
+++ b/单词.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN相关\Zhejiang-Huangyan-Middle-School\trunk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844766D3-648F-4F01-8510-EBB44E101007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="初中英语" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="330">
   <si>
     <t>单元</t>
   </si>
@@ -823,9 +829,6 @@
     <t>抱歉的；难过的</t>
   </si>
   <si>
-    <t>outtside</t>
-  </si>
-  <si>
     <t>在外面；外面的</t>
   </si>
   <si>
@@ -1007,19 +1010,17 @@
   </si>
   <si>
     <t>学习；学会</t>
+  </si>
+  <si>
+    <t>outside</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1051,151 +1052,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1214,194 +1077,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="27">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1649,255 +1326,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1928,13 +1363,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1946,12 +1375,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1961,25 +1384,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1988,77 +1396,51 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2316,30 +1698,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82:F163"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3333333333333" style="2"/>
-    <col min="2" max="2" width="11.3333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.4666666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="35.2833333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.4416666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.8833333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="2"/>
+    <col min="2" max="2" width="11.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="19.5" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2359,8 +1741,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="8">
@@ -2375,12 +1757,12 @@
       <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="28">
         <v>44410</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
       <c r="B3" s="8">
         <v>2</v>
       </c>
@@ -2393,10 +1775,10 @@
       <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
       <c r="B4" s="8">
         <v>3</v>
       </c>
@@ -2409,10 +1791,10 @@
       <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="7"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
       <c r="B5" s="8">
         <v>4</v>
       </c>
@@ -2425,10 +1807,10 @@
       <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="7"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
       <c r="B6" s="8">
         <v>5</v>
       </c>
@@ -2441,10 +1823,10 @@
       <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
       <c r="B7" s="8">
         <v>6</v>
       </c>
@@ -2457,10 +1839,10 @@
       <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
       <c r="B8" s="8">
         <v>7</v>
       </c>
@@ -2473,10 +1855,10 @@
       <c r="E8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
       <c r="B9" s="8">
         <v>8</v>
       </c>
@@ -2486,13 +1868,13 @@
       <c r="D9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="7"/>
+      <c r="E9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
       <c r="B10" s="8">
         <v>9</v>
       </c>
@@ -2502,13 +1884,13 @@
       <c r="D10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="7"/>
+      <c r="E10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
       <c r="B11" s="8">
         <v>10</v>
       </c>
@@ -2521,10 +1903,10 @@
       <c r="E11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="7"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
       <c r="B12" s="8">
         <v>11</v>
       </c>
@@ -2534,13 +1916,13 @@
       <c r="D12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7"/>
+      <c r="E12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
       <c r="B13" s="8">
         <v>12</v>
       </c>
@@ -2553,10 +1935,10 @@
       <c r="E13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
       <c r="B14" s="8">
         <v>13</v>
       </c>
@@ -2569,10 +1951,10 @@
       <c r="E14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
       <c r="B15" s="8">
         <v>14</v>
       </c>
@@ -2585,10 +1967,10 @@
       <c r="E15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="7"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
       <c r="B16" s="8">
         <v>15</v>
       </c>
@@ -2601,10 +1983,10 @@
       <c r="E16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="7"/>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
       <c r="B17" s="8">
         <v>16</v>
       </c>
@@ -2614,13 +1996,13 @@
       <c r="D17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="7"/>
+      <c r="E17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
       <c r="B18" s="8">
         <v>17</v>
       </c>
@@ -2633,10 +2015,10 @@
       <c r="E18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="7"/>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
       <c r="B19" s="8">
         <v>18</v>
       </c>
@@ -2649,10 +2031,10 @@
       <c r="E19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="7"/>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
       <c r="B20" s="8">
         <v>19</v>
       </c>
@@ -2665,10 +2047,10 @@
       <c r="E20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="7"/>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
       <c r="B21" s="8">
         <v>20</v>
       </c>
@@ -2678,13 +2060,13 @@
       <c r="D21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="7"/>
+      <c r="E21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
       <c r="B22" s="8">
         <v>21</v>
       </c>
@@ -2694,13 +2076,13 @@
       <c r="D22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="7"/>
+      <c r="E22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
       <c r="B23" s="8">
         <v>22</v>
       </c>
@@ -2710,13 +2092,13 @@
       <c r="D23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="7"/>
+      <c r="E23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
       <c r="B24" s="8">
         <v>23</v>
       </c>
@@ -2726,13 +2108,13 @@
       <c r="D24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="7"/>
+      <c r="E24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
       <c r="B25" s="8">
         <v>24</v>
       </c>
@@ -2742,13 +2124,13 @@
       <c r="D25" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="7"/>
+      <c r="E25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
       <c r="B26" s="8">
         <v>25</v>
       </c>
@@ -2761,10 +2143,10 @@
       <c r="E26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="7"/>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
       <c r="B27" s="8">
         <v>26</v>
       </c>
@@ -2777,10 +2159,10 @@
       <c r="E27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="7"/>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
       <c r="B28" s="8">
         <v>27</v>
       </c>
@@ -2793,10 +2175,10 @@
       <c r="E28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="7"/>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
       <c r="B29" s="8">
         <v>28</v>
       </c>
@@ -2809,10 +2191,10 @@
       <c r="E29" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="7"/>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
       <c r="B30" s="8">
         <v>29</v>
       </c>
@@ -2825,10 +2207,10 @@
       <c r="E30" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="7"/>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
       <c r="B31" s="8">
         <v>30</v>
       </c>
@@ -2838,13 +2220,13 @@
       <c r="D31" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="7"/>
+      <c r="E31" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
       <c r="B32" s="8">
         <v>31</v>
       </c>
@@ -2857,10 +2239,10 @@
       <c r="E32" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="7"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
       <c r="B33" s="8">
         <v>32</v>
       </c>
@@ -2873,10 +2255,10 @@
       <c r="E33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="7"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
       <c r="B34" s="8">
         <v>33</v>
       </c>
@@ -2889,10 +2271,10 @@
       <c r="E34" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="7"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
       <c r="B35" s="8">
         <v>34</v>
       </c>
@@ -2905,10 +2287,10 @@
       <c r="E35" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="7"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
       <c r="B36" s="8">
         <v>35</v>
       </c>
@@ -2921,10 +2303,10 @@
       <c r="E36" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="7"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
       <c r="B37" s="8">
         <v>36</v>
       </c>
@@ -2937,10 +2319,10 @@
       <c r="E37" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="7"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
       <c r="B38" s="8">
         <v>37</v>
       </c>
@@ -2953,10 +2335,10 @@
       <c r="E38" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="7"/>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
       <c r="B39" s="8">
         <v>38</v>
       </c>
@@ -2966,47 +2348,47 @@
       <c r="D39" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" ht="19.5" spans="1:6">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13">
+      <c r="E39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="11">
         <v>39</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" ht="19.5" spans="1:6">
-      <c r="A41" s="17" t="s">
+      <c r="E40" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="29"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="14">
         <v>1</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="17"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="7"/>
+      <c r="E41" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="24"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
       <c r="B42" s="8">
         <v>2</v>
       </c>
@@ -3016,13 +2398,13 @@
       <c r="D42" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="7"/>
+      <c r="E42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
       <c r="B43" s="8">
         <v>3</v>
       </c>
@@ -3035,10 +2417,10 @@
       <c r="E43" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="7"/>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
       <c r="B44" s="8">
         <v>4</v>
       </c>
@@ -3048,13 +2430,13 @@
       <c r="D44" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="7"/>
+      <c r="E44" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
       <c r="B45" s="8">
         <v>5</v>
       </c>
@@ -3067,10 +2449,10 @@
       <c r="E45" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="7"/>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
       <c r="B46" s="8">
         <v>6</v>
       </c>
@@ -3083,10 +2465,10 @@
       <c r="E46" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="7"/>
+      <c r="F46" s="22"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
       <c r="B47" s="8">
         <v>7</v>
       </c>
@@ -3096,13 +2478,13 @@
       <c r="D47" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="7"/>
+      <c r="E47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="22"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
       <c r="B48" s="8">
         <v>8</v>
       </c>
@@ -3112,13 +2494,13 @@
       <c r="D48" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="7"/>
+      <c r="E48" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="22"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
       <c r="B49" s="8">
         <v>9</v>
       </c>
@@ -3128,13 +2510,13 @@
       <c r="D49" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="7"/>
+      <c r="E49" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="22"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
       <c r="B50" s="8">
         <v>10</v>
       </c>
@@ -3147,10 +2529,10 @@
       <c r="E50" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="7"/>
+      <c r="F50" s="22"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
       <c r="B51" s="8">
         <v>11</v>
       </c>
@@ -3163,10 +2545,10 @@
       <c r="E51" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="7"/>
+      <c r="F51" s="22"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
       <c r="B52" s="8">
         <v>12</v>
       </c>
@@ -3179,10 +2561,10 @@
       <c r="E52" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="7"/>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
       <c r="B53" s="8">
         <v>13</v>
       </c>
@@ -3195,10 +2577,10 @@
       <c r="E53" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="7"/>
+      <c r="F53" s="22"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
       <c r="B54" s="8">
         <v>14</v>
       </c>
@@ -3211,10 +2593,10 @@
       <c r="E54" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="7"/>
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
       <c r="B55" s="8">
         <v>15</v>
       </c>
@@ -3227,10 +2609,10 @@
       <c r="E55" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="7"/>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
       <c r="B56" s="8">
         <v>16</v>
       </c>
@@ -3240,13 +2622,13 @@
       <c r="D56" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E56" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="7"/>
+      <c r="E56" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="22"/>
       <c r="B57" s="8">
         <v>17</v>
       </c>
@@ -3259,10 +2641,10 @@
       <c r="E57" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="7"/>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="22"/>
       <c r="B58" s="8">
         <v>18</v>
       </c>
@@ -3272,13 +2654,13 @@
       <c r="D58" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E58" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="7"/>
+      <c r="E58" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="22"/>
       <c r="B59" s="8">
         <v>19</v>
       </c>
@@ -3288,13 +2670,13 @@
       <c r="D59" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="7"/>
+      <c r="E59" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="22"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
       <c r="B60" s="8">
         <v>20</v>
       </c>
@@ -3307,10 +2689,10 @@
       <c r="E60" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="7"/>
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="22"/>
       <c r="B61" s="8">
         <v>21</v>
       </c>
@@ -3320,13 +2702,13 @@
       <c r="D61" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E61" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="7"/>
+      <c r="E61" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="22"/>
       <c r="B62" s="8">
         <v>22</v>
       </c>
@@ -3336,13 +2718,13 @@
       <c r="D62" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E62" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="7"/>
+      <c r="E62" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="22"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="22"/>
       <c r="B63" s="8">
         <v>23</v>
       </c>
@@ -3355,10 +2737,10 @@
       <c r="E63" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="7"/>
+      <c r="F63" s="22"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="22"/>
       <c r="B64" s="8">
         <v>24</v>
       </c>
@@ -3368,13 +2750,13 @@
       <c r="D64" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E64" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="7"/>
+      <c r="E64" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="22"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="22"/>
       <c r="B65" s="8">
         <v>25</v>
       </c>
@@ -3387,10 +2769,10 @@
       <c r="E65" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="7"/>
+      <c r="F65" s="22"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="22"/>
       <c r="B66" s="8">
         <v>26</v>
       </c>
@@ -3400,13 +2782,13 @@
       <c r="D66" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E66" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="7"/>
+      <c r="E66" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="22"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="22"/>
       <c r="B67" s="8">
         <v>27</v>
       </c>
@@ -3416,13 +2798,13 @@
       <c r="D67" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E67" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="7"/>
+      <c r="E67" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="22"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="22"/>
       <c r="B68" s="8">
         <v>28</v>
       </c>
@@ -3435,10 +2817,10 @@
       <c r="E68" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="7"/>
+      <c r="F68" s="22"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="22"/>
       <c r="B69" s="8">
         <v>29</v>
       </c>
@@ -3451,10 +2833,10 @@
       <c r="E69" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="7"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="7"/>
+      <c r="F69" s="22"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="22"/>
       <c r="B70" s="8">
         <v>30</v>
       </c>
@@ -3467,10 +2849,10 @@
       <c r="E70" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="7"/>
+      <c r="F70" s="22"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="22"/>
       <c r="B71" s="8">
         <v>31</v>
       </c>
@@ -3483,10 +2865,10 @@
       <c r="E71" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="7"/>
+      <c r="F71" s="22"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="22"/>
       <c r="B72" s="8">
         <v>32</v>
       </c>
@@ -3499,10 +2881,10 @@
       <c r="E72" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="7"/>
+      <c r="F72" s="22"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="22"/>
       <c r="B73" s="8">
         <v>33</v>
       </c>
@@ -3515,10 +2897,10 @@
       <c r="E73" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="7"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="7"/>
+      <c r="F73" s="22"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="22"/>
       <c r="B74" s="8">
         <v>34</v>
       </c>
@@ -3528,13 +2910,13 @@
       <c r="D74" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E74" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="7"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="7"/>
+      <c r="E74" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="22"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="22"/>
       <c r="B75" s="8">
         <v>35</v>
       </c>
@@ -3547,10 +2929,10 @@
       <c r="E75" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="7"/>
+      <c r="F75" s="22"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="22"/>
       <c r="B76" s="8">
         <v>36</v>
       </c>
@@ -3563,10 +2945,10 @@
       <c r="E76" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="7"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="7"/>
+      <c r="F76" s="22"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="22"/>
       <c r="B77" s="8">
         <v>37</v>
       </c>
@@ -3579,10 +2961,10 @@
       <c r="E77" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="7"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="7"/>
+      <c r="F77" s="22"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="22"/>
       <c r="B78" s="8">
         <v>38</v>
       </c>
@@ -3595,10 +2977,10 @@
       <c r="E78" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="7"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="7"/>
+      <c r="F78" s="22"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="22"/>
       <c r="B79" s="8">
         <v>39</v>
       </c>
@@ -3611,10 +2993,10 @@
       <c r="E79" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F79" s="7"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="7"/>
+      <c r="F79" s="22"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="22"/>
       <c r="B80" s="8">
         <v>40</v>
       </c>
@@ -3627,1182 +3009,1344 @@
       <c r="E80" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="7"/>
-    </row>
-    <row r="81" ht="19.5" spans="1:6">
-      <c r="A81" s="21"/>
-      <c r="B81" s="13">
+      <c r="F80" s="22"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="25"/>
+      <c r="B81" s="11">
         <v>41</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D81" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="E81" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" s="14"/>
-    </row>
-    <row r="82" ht="19.5" spans="1:6">
-      <c r="A82" s="22" t="s">
+      <c r="E81" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="30"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B82" s="22">
+      <c r="B82" s="17">
         <v>1</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D82" s="22" t="s">
+      <c r="D82" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E82" s="23"/>
-      <c r="F82" s="24">
+      <c r="E82" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="31">
         <v>44411</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="22"/>
+      <c r="B83" s="18">
         <v>2</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="D83" s="25" t="s">
+      <c r="D83" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="E83" s="26"/>
+      <c r="E83" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F83" s="27"/>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="25"/>
-      <c r="B84" s="25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="22"/>
+      <c r="B84" s="18">
         <v>3</v>
       </c>
-      <c r="C84" s="25" t="s">
+      <c r="C84" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="D84" s="25" t="s">
+      <c r="D84" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="E84" s="26"/>
+      <c r="E84" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F84" s="27"/>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="25"/>
-      <c r="B85" s="25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="22"/>
+      <c r="B85" s="18">
         <v>4</v>
       </c>
-      <c r="C85" s="25" t="s">
+      <c r="C85" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="D85" s="25" t="s">
+      <c r="D85" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="E85" s="26"/>
+      <c r="E85" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F85" s="27"/>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="22"/>
+      <c r="B86" s="18">
         <v>5</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C86" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="D86" s="25" t="s">
+      <c r="D86" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E86" s="26"/>
+      <c r="E86" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F86" s="27"/>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="22"/>
+      <c r="B87" s="18">
         <v>6</v>
       </c>
-      <c r="C87" s="25" t="s">
+      <c r="C87" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D87" s="25" t="s">
+      <c r="D87" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="E87" s="26"/>
+      <c r="E87" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F87" s="27"/>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="22"/>
+      <c r="B88" s="18">
         <v>7</v>
       </c>
-      <c r="C88" s="25" t="s">
+      <c r="C88" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="D88" s="25" t="s">
+      <c r="D88" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="E88" s="26"/>
+      <c r="E88" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F88" s="27"/>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="25"/>
-      <c r="B89" s="25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="22"/>
+      <c r="B89" s="18">
         <v>8</v>
       </c>
-      <c r="C89" s="25" t="s">
+      <c r="C89" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="D89" s="25" t="s">
+      <c r="D89" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="E89" s="26"/>
+      <c r="E89" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F89" s="27"/>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25">
-        <v>9</v>
-      </c>
-      <c r="C90" s="25" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="22"/>
+      <c r="B90" s="18">
+        <v>9</v>
+      </c>
+      <c r="C90" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="D90" s="25" t="s">
+      <c r="D90" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="E90" s="26"/>
+      <c r="E90" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F90" s="27"/>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="25"/>
-      <c r="B91" s="25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="22"/>
+      <c r="B91" s="18">
         <v>10</v>
       </c>
-      <c r="C91" s="25" t="s">
+      <c r="C91" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="D91" s="25" t="s">
+      <c r="D91" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="E91" s="26"/>
+      <c r="E91" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F91" s="27"/>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="25"/>
-      <c r="B92" s="25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="22"/>
+      <c r="B92" s="18">
         <v>11</v>
       </c>
-      <c r="C92" s="25" t="s">
+      <c r="C92" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="D92" s="25" t="s">
+      <c r="D92" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="E92" s="26"/>
+      <c r="E92" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F92" s="27"/>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="25"/>
-      <c r="B93" s="25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="22"/>
+      <c r="B93" s="18">
         <v>12</v>
       </c>
-      <c r="C93" s="25" t="s">
+      <c r="C93" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="D93" s="25" t="s">
+      <c r="D93" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="E93" s="26"/>
+      <c r="E93" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F93" s="27"/>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="25"/>
-      <c r="B94" s="25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="22"/>
+      <c r="B94" s="18">
         <v>13</v>
       </c>
-      <c r="C94" s="25" t="s">
+      <c r="C94" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="D94" s="25" t="s">
+      <c r="D94" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E94" s="26"/>
+      <c r="E94" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F94" s="27"/>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="25"/>
-      <c r="B95" s="25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="22"/>
+      <c r="B95" s="18">
         <v>14</v>
       </c>
-      <c r="C95" s="25" t="s">
+      <c r="C95" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="D95" s="25" t="s">
+      <c r="D95" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="E95" s="26"/>
+      <c r="E95" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F95" s="27"/>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="22"/>
+      <c r="B96" s="18">
         <v>15</v>
       </c>
-      <c r="C96" s="25" t="s">
+      <c r="C96" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="D96" s="25" t="s">
+      <c r="D96" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="E96" s="26"/>
+      <c r="E96" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F96" s="27"/>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="22"/>
+      <c r="B97" s="18">
         <v>16</v>
       </c>
-      <c r="C97" s="25" t="s">
+      <c r="C97" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="D97" s="25" t="s">
+      <c r="D97" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="E97" s="26"/>
+      <c r="E97" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F97" s="27"/>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="22"/>
+      <c r="B98" s="18">
         <v>17</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="D98" s="25" t="s">
+      <c r="D98" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="E98" s="26"/>
+      <c r="E98" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F98" s="27"/>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="22"/>
+      <c r="B99" s="18">
         <v>18</v>
       </c>
-      <c r="C99" s="25" t="s">
+      <c r="C99" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="D99" s="25" t="s">
+      <c r="D99" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="E99" s="26"/>
+      <c r="E99" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F99" s="27"/>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="22"/>
+      <c r="B100" s="18">
         <v>19</v>
       </c>
-      <c r="C100" s="25" t="s">
+      <c r="C100" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D100" s="25" t="s">
+      <c r="D100" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="E100" s="26"/>
+      <c r="E100" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F100" s="27"/>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="25"/>
-      <c r="B101" s="25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="22"/>
+      <c r="B101" s="18">
         <v>20</v>
       </c>
-      <c r="C101" s="25" t="s">
+      <c r="C101" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="D101" s="25" t="s">
+      <c r="D101" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="E101" s="26"/>
+      <c r="E101" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F101" s="27"/>
     </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="25"/>
-      <c r="B102" s="25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="22"/>
+      <c r="B102" s="18">
         <v>21</v>
       </c>
-      <c r="C102" s="25" t="s">
+      <c r="C102" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="D102" s="25" t="s">
+      <c r="D102" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="E102" s="26"/>
+      <c r="E102" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F102" s="27"/>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="25"/>
-      <c r="B103" s="25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="22"/>
+      <c r="B103" s="18">
         <v>22</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="C103" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="D103" s="25" t="s">
+      <c r="D103" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="E103" s="26"/>
+      <c r="E103" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F103" s="27"/>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="25"/>
-      <c r="B104" s="25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="22"/>
+      <c r="B104" s="18">
         <v>23</v>
       </c>
-      <c r="C104" s="25" t="s">
+      <c r="C104" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="D104" s="25" t="s">
+      <c r="D104" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="E104" s="26"/>
+      <c r="E104" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F104" s="27"/>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="25"/>
-      <c r="B105" s="25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="22"/>
+      <c r="B105" s="18">
         <v>24</v>
       </c>
-      <c r="C105" s="25" t="s">
+      <c r="C105" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="D105" s="25" t="s">
+      <c r="D105" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E105" s="26"/>
+      <c r="E105" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F105" s="27"/>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="25"/>
-      <c r="B106" s="25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="22"/>
+      <c r="B106" s="18">
         <v>25</v>
       </c>
-      <c r="C106" s="25" t="s">
+      <c r="C106" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="D106" s="25" t="s">
+      <c r="D106" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="E106" s="26"/>
+      <c r="E106" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F106" s="27"/>
     </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="22"/>
+      <c r="B107" s="18">
         <v>26</v>
       </c>
-      <c r="C107" s="25" t="s">
+      <c r="C107" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D107" s="25" t="s">
+      <c r="D107" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="E107" s="26"/>
+      <c r="E107" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F107" s="27"/>
     </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="25"/>
-      <c r="B108" s="25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="22"/>
+      <c r="B108" s="18">
         <v>27</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="C108" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="D108" s="25" t="s">
+      <c r="D108" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="E108" s="26"/>
+      <c r="E108" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F108" s="27"/>
     </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="25"/>
-      <c r="B109" s="25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="22"/>
+      <c r="B109" s="18">
         <v>28</v>
       </c>
-      <c r="C109" s="25" t="s">
+      <c r="C109" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="D109" s="25" t="s">
+      <c r="D109" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="E109" s="26"/>
+      <c r="E109" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F109" s="27"/>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="25"/>
-      <c r="B110" s="25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="22"/>
+      <c r="B110" s="18">
         <v>29</v>
       </c>
-      <c r="C110" s="25" t="s">
+      <c r="C110" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="D110" s="25" t="s">
+      <c r="D110" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="E110" s="26"/>
+      <c r="E110" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F110" s="27"/>
     </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="25"/>
-      <c r="B111" s="25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="22"/>
+      <c r="B111" s="18">
         <v>30</v>
       </c>
-      <c r="C111" s="25" t="s">
+      <c r="C111" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="D111" s="25" t="s">
+      <c r="D111" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="E111" s="26"/>
+      <c r="E111" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F111" s="27"/>
     </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="25"/>
-      <c r="B112" s="25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="22"/>
+      <c r="B112" s="18">
         <v>31</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="C112" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="D112" s="25" t="s">
+      <c r="D112" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="E112" s="26"/>
+      <c r="E112" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F112" s="27"/>
     </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="25"/>
-      <c r="B113" s="25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="22"/>
+      <c r="B113" s="18">
         <v>32</v>
       </c>
-      <c r="C113" s="25" t="s">
+      <c r="C113" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="D113" s="25" t="s">
+      <c r="D113" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="E113" s="26"/>
+      <c r="E113" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F113" s="27"/>
     </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="25"/>
-      <c r="B114" s="25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="22"/>
+      <c r="B114" s="18">
         <v>33</v>
       </c>
-      <c r="C114" s="25" t="s">
+      <c r="C114" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="D114" s="25" t="s">
+      <c r="D114" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="E114" s="26"/>
+      <c r="E114" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F114" s="27"/>
     </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="25"/>
-      <c r="B115" s="25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="22"/>
+      <c r="B115" s="18">
         <v>34</v>
       </c>
-      <c r="C115" s="25" t="s">
+      <c r="C115" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="D115" s="25" t="s">
+      <c r="D115" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="E115" s="26"/>
+      <c r="E115" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F115" s="27"/>
     </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="25"/>
-      <c r="B116" s="25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="22"/>
+      <c r="B116" s="18">
         <v>35</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="C116" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="D116" s="25" t="s">
+      <c r="D116" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="E116" s="26"/>
+      <c r="E116" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F116" s="27"/>
     </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="25"/>
-      <c r="B117" s="25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="22"/>
+      <c r="B117" s="18">
         <v>36</v>
       </c>
-      <c r="C117" s="25" t="s">
+      <c r="C117" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="D117" s="25" t="s">
+      <c r="D117" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="E117" s="26"/>
+      <c r="E117" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F117" s="27"/>
     </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="25"/>
-      <c r="B118" s="25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="22"/>
+      <c r="B118" s="18">
         <v>37</v>
       </c>
-      <c r="C118" s="25" t="s">
+      <c r="C118" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="D118" s="25" t="s">
+      <c r="D118" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="E118" s="26"/>
+      <c r="E118" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F118" s="27"/>
     </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="25"/>
-      <c r="B119" s="25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="22"/>
+      <c r="B119" s="18">
         <v>38</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="C119" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="D119" s="25" t="s">
+      <c r="D119" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="E119" s="26"/>
+      <c r="E119" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F119" s="27"/>
     </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="25"/>
-      <c r="B120" s="25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="22"/>
+      <c r="B120" s="18">
         <v>39</v>
       </c>
-      <c r="C120" s="25" t="s">
+      <c r="C120" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="D120" s="25" t="s">
+      <c r="D120" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="E120" s="26"/>
+      <c r="E120" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F120" s="27"/>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="25"/>
-      <c r="B121" s="25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="22"/>
+      <c r="B121" s="18">
         <v>40</v>
       </c>
-      <c r="C121" s="25" t="s">
+      <c r="C121" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="D121" s="25" t="s">
+      <c r="D121" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="E121" s="26"/>
+      <c r="E121" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F121" s="27"/>
     </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="25"/>
-      <c r="B122" s="25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="22"/>
+      <c r="B122" s="18">
         <v>41</v>
       </c>
-      <c r="C122" s="25" t="s">
+      <c r="C122" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="D122" s="25" t="s">
+      <c r="D122" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="E122" s="26"/>
+      <c r="E122" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F122" s="27"/>
     </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="25"/>
-      <c r="B123" s="25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="22"/>
+      <c r="B123" s="18">
         <v>42</v>
       </c>
-      <c r="C123" s="25" t="b">
+      <c r="C123" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="D123" s="25" t="s">
+      <c r="D123" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="E123" s="26"/>
+      <c r="E123" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F123" s="27"/>
     </row>
-    <row r="124" ht="19.5" spans="1:6">
-      <c r="A124" s="28"/>
-      <c r="B124" s="29">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="23"/>
+      <c r="B124" s="20">
         <v>43</v>
       </c>
-      <c r="C124" s="28" t="s">
+      <c r="C124" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="D124" s="28" t="s">
+      <c r="D124" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="E124" s="30"/>
+      <c r="E124" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F124" s="27"/>
     </row>
-    <row r="125" ht="19.5" spans="1:6">
-      <c r="A125" s="31" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="B125" s="22">
+      <c r="B125" s="17">
         <v>1</v>
       </c>
-      <c r="C125" s="32" t="s">
+      <c r="C125" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="D125" s="32" t="s">
+      <c r="D125" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="E125" s="33"/>
+      <c r="E125" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F125" s="27"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="27"/>
-      <c r="B126" s="25">
+      <c r="B126" s="18">
         <v>2</v>
       </c>
-      <c r="C126" s="25" t="s">
+      <c r="C126" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="D126" s="25" t="s">
+      <c r="D126" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E126" s="26"/>
+      <c r="E126" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F126" s="27"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="27"/>
-      <c r="B127" s="25">
+      <c r="B127" s="18">
         <v>3</v>
       </c>
-      <c r="C127" s="25" t="s">
+      <c r="C127" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="D127" s="25" t="s">
+      <c r="D127" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="E127" s="26"/>
+      <c r="E127" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F127" s="27"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="27"/>
-      <c r="B128" s="25">
+      <c r="B128" s="18">
         <v>4</v>
       </c>
-      <c r="C128" s="25" t="s">
+      <c r="C128" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="D128" s="25" t="s">
+      <c r="D128" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="E128" s="26"/>
+      <c r="E128" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F128" s="27"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="27"/>
-      <c r="B129" s="25">
+      <c r="B129" s="18">
         <v>5</v>
       </c>
-      <c r="C129" s="25" t="s">
+      <c r="C129" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="D129" s="25" t="s">
+      <c r="D129" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="E129" s="26"/>
+      <c r="E129" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F129" s="27"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="27"/>
-      <c r="B130" s="25">
+      <c r="B130" s="18">
         <v>6</v>
       </c>
-      <c r="C130" s="25" t="s">
+      <c r="C130" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="D130" s="25" t="s">
+      <c r="D130" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="E130" s="26"/>
+      <c r="E130" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F130" s="27"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="27"/>
-      <c r="B131" s="25">
+      <c r="B131" s="18">
         <v>7</v>
       </c>
-      <c r="C131" s="25" t="s">
+      <c r="C131" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="D131" s="25" t="s">
+      <c r="D131" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="E131" s="26"/>
+      <c r="E131" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F131" s="27"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="27"/>
-      <c r="B132" s="25">
+      <c r="B132" s="18">
         <v>8</v>
       </c>
-      <c r="C132" s="25" t="s">
+      <c r="C132" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="D132" s="25" t="s">
+      <c r="D132" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="E132" s="26"/>
+      <c r="E132" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F132" s="27"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="27"/>
-      <c r="B133" s="25">
-        <v>9</v>
-      </c>
-      <c r="C133" s="25" t="s">
+      <c r="B133" s="18">
+        <v>9</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="D133" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="D133" s="25" t="s">
+      <c r="E133" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="27"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="27"/>
+      <c r="B134" s="18">
+        <v>10</v>
+      </c>
+      <c r="C134" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="E133" s="26"/>
-      <c r="F133" s="27"/>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="27"/>
-      <c r="B134" s="25">
-        <v>10</v>
-      </c>
-      <c r="C134" s="25" t="s">
+      <c r="D134" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="D134" s="25" t="s">
+      <c r="E134" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="27"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="27"/>
+      <c r="B135" s="18">
+        <v>11</v>
+      </c>
+      <c r="C135" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="E134" s="26"/>
-      <c r="F134" s="27"/>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="27"/>
-      <c r="B135" s="25">
-        <v>11</v>
-      </c>
-      <c r="C135" s="25" t="s">
+      <c r="D135" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="D135" s="25" t="s">
+      <c r="E135" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="27"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="27"/>
+      <c r="B136" s="18">
+        <v>12</v>
+      </c>
+      <c r="C136" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="E135" s="26"/>
-      <c r="F135" s="27"/>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="27"/>
-      <c r="B136" s="25">
-        <v>12</v>
-      </c>
-      <c r="C136" s="25" t="s">
+      <c r="D136" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="D136" s="25" t="s">
+      <c r="E136" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="27"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="27"/>
+      <c r="B137" s="18">
+        <v>13</v>
+      </c>
+      <c r="C137" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E136" s="26"/>
-      <c r="F136" s="27"/>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="27"/>
-      <c r="B137" s="25">
-        <v>13</v>
-      </c>
-      <c r="C137" s="25" t="s">
+      <c r="D137" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="D137" s="25" t="s">
+      <c r="E137" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="27"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="27"/>
+      <c r="B138" s="18">
+        <v>14</v>
+      </c>
+      <c r="C138" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="E137" s="26"/>
-      <c r="F137" s="27"/>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="27"/>
-      <c r="B138" s="25">
-        <v>14</v>
-      </c>
-      <c r="C138" s="25" t="s">
+      <c r="D138" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="D138" s="25" t="s">
+      <c r="E138" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="27"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="27"/>
+      <c r="B139" s="18">
+        <v>15</v>
+      </c>
+      <c r="C139" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="E138" s="26"/>
-      <c r="F138" s="27"/>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="27"/>
-      <c r="B139" s="25">
-        <v>15</v>
-      </c>
-      <c r="C139" s="25" t="s">
+      <c r="D139" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="D139" s="25" t="s">
+      <c r="E139" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="27"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="27"/>
+      <c r="B140" s="18">
+        <v>16</v>
+      </c>
+      <c r="C140" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="E139" s="26"/>
-      <c r="F139" s="27"/>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="27"/>
-      <c r="B140" s="25">
-        <v>16</v>
-      </c>
-      <c r="C140" s="25" t="s">
+      <c r="D140" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="D140" s="25" t="s">
+      <c r="E140" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="27"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="27"/>
+      <c r="B141" s="18">
+        <v>17</v>
+      </c>
+      <c r="C141" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="E140" s="26"/>
-      <c r="F140" s="27"/>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="27"/>
-      <c r="B141" s="25">
-        <v>17</v>
-      </c>
-      <c r="C141" s="25" t="s">
+      <c r="D141" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="D141" s="25" t="s">
+      <c r="E141" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="27"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="27"/>
+      <c r="B142" s="18">
+        <v>18</v>
+      </c>
+      <c r="C142" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="E141" s="26"/>
-      <c r="F141" s="27"/>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="27"/>
-      <c r="B142" s="25">
-        <v>18</v>
-      </c>
-      <c r="C142" s="25" t="s">
+      <c r="D142" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="D142" s="25" t="s">
+      <c r="E142" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="27"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="27"/>
+      <c r="B143" s="18">
+        <v>19</v>
+      </c>
+      <c r="C143" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="E142" s="26"/>
-      <c r="F142" s="27"/>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="27"/>
-      <c r="B143" s="25">
-        <v>19</v>
-      </c>
-      <c r="C143" s="25" t="s">
+      <c r="D143" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="D143" s="25" t="s">
+      <c r="E143" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="27"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="27"/>
+      <c r="B144" s="18">
+        <v>20</v>
+      </c>
+      <c r="C144" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="E143" s="26"/>
-      <c r="F143" s="27"/>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="27"/>
-      <c r="B144" s="25">
-        <v>20</v>
-      </c>
-      <c r="C144" s="25" t="s">
+      <c r="D144" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="D144" s="25" t="s">
+      <c r="E144" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" s="27"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="27"/>
+      <c r="B145" s="18">
+        <v>21</v>
+      </c>
+      <c r="C145" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="E144" s="26"/>
-      <c r="F144" s="27"/>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="27"/>
-      <c r="B145" s="25">
-        <v>21</v>
-      </c>
-      <c r="C145" s="25" t="s">
+      <c r="D145" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="D145" s="25" t="s">
+      <c r="E145" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" s="27"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="27"/>
+      <c r="B146" s="18">
+        <v>22</v>
+      </c>
+      <c r="C146" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="E145" s="26"/>
-      <c r="F145" s="27"/>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="27"/>
-      <c r="B146" s="25">
-        <v>22</v>
-      </c>
-      <c r="C146" s="25" t="s">
+      <c r="D146" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="D146" s="25" t="s">
+      <c r="E146" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="27"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="27"/>
+      <c r="B147" s="18">
+        <v>23</v>
+      </c>
+      <c r="C147" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="E146" s="26"/>
-      <c r="F146" s="27"/>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="27"/>
-      <c r="B147" s="25">
-        <v>23</v>
-      </c>
-      <c r="C147" s="25" t="s">
+      <c r="D147" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="D147" s="25" t="s">
+      <c r="E147" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" s="27"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="27"/>
+      <c r="B148" s="18">
+        <v>24</v>
+      </c>
+      <c r="C148" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="E147" s="26"/>
-      <c r="F147" s="27"/>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="27"/>
-      <c r="B148" s="25">
-        <v>24</v>
-      </c>
-      <c r="C148" s="25" t="s">
+      <c r="D148" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D148" s="25" t="s">
+      <c r="E148" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" s="27"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="27"/>
+      <c r="B149" s="18">
+        <v>25</v>
+      </c>
+      <c r="C149" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="E148" s="26"/>
-      <c r="F148" s="27"/>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="27"/>
-      <c r="B149" s="25">
-        <v>25</v>
-      </c>
-      <c r="C149" s="25" t="s">
+      <c r="D149" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="D149" s="25" t="s">
+      <c r="E149" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" s="27"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="27"/>
+      <c r="B150" s="18">
+        <v>26</v>
+      </c>
+      <c r="C150" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="E149" s="26"/>
-      <c r="F149" s="27"/>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="27"/>
-      <c r="B150" s="25">
-        <v>26</v>
-      </c>
-      <c r="C150" s="25" t="s">
+      <c r="D150" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="D150" s="25" t="s">
+      <c r="E150" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" s="27"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="27"/>
+      <c r="B151" s="18">
+        <v>27</v>
+      </c>
+      <c r="C151" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="E150" s="26"/>
-      <c r="F150" s="27"/>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="27"/>
-      <c r="B151" s="25">
-        <v>27</v>
-      </c>
-      <c r="C151" s="25" t="s">
+      <c r="D151" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="D151" s="25" t="s">
+      <c r="E151" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" s="27"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="27"/>
+      <c r="B152" s="18">
+        <v>28</v>
+      </c>
+      <c r="C152" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="E151" s="26"/>
-      <c r="F151" s="27"/>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="27"/>
-      <c r="B152" s="25">
-        <v>28</v>
-      </c>
-      <c r="C152" s="25" t="s">
+      <c r="D152" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="D152" s="25" t="s">
+      <c r="E152" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" s="27"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="27"/>
+      <c r="B153" s="18">
+        <v>29</v>
+      </c>
+      <c r="C153" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="E152" s="26"/>
-      <c r="F152" s="27"/>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="27"/>
-      <c r="B153" s="25">
-        <v>29</v>
-      </c>
-      <c r="C153" s="25" t="s">
+      <c r="D153" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="D153" s="25" t="s">
+      <c r="E153" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" s="27"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="27"/>
+      <c r="B154" s="18">
+        <v>30</v>
+      </c>
+      <c r="C154" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="E153" s="26"/>
-      <c r="F153" s="27"/>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="27"/>
-      <c r="B154" s="25">
-        <v>30</v>
-      </c>
-      <c r="C154" s="25" t="s">
+      <c r="D154" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="D154" s="25" t="s">
+      <c r="E154" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" s="27"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="27"/>
+      <c r="B155" s="18">
+        <v>31</v>
+      </c>
+      <c r="C155" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="E154" s="26"/>
-      <c r="F154" s="27"/>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="27"/>
-      <c r="B155" s="25">
-        <v>31</v>
-      </c>
-      <c r="C155" s="25" t="s">
+      <c r="D155" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="D155" s="25" t="s">
+      <c r="E155" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" s="27"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="27"/>
+      <c r="B156" s="18">
+        <v>32</v>
+      </c>
+      <c r="C156" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="E155" s="26"/>
-      <c r="F155" s="27"/>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="27"/>
-      <c r="B156" s="25">
-        <v>32</v>
-      </c>
-      <c r="C156" s="25" t="s">
+      <c r="D156" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="D156" s="25" t="s">
+      <c r="E156" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="27"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="27"/>
+      <c r="B157" s="18">
+        <v>33</v>
+      </c>
+      <c r="C157" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="E156" s="26"/>
-      <c r="F156" s="27"/>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="27"/>
-      <c r="B157" s="25">
-        <v>33</v>
-      </c>
-      <c r="C157" s="25" t="s">
+      <c r="D157" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="D157" s="25" t="s">
+      <c r="E157" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" s="27"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="27"/>
+      <c r="B158" s="18">
+        <v>34</v>
+      </c>
+      <c r="C158" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="E157" s="26"/>
-      <c r="F157" s="27"/>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="27"/>
-      <c r="B158" s="25">
-        <v>34</v>
-      </c>
-      <c r="C158" s="25" t="s">
+      <c r="D158" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="D158" s="25" t="s">
+      <c r="E158" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" s="27"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="27"/>
+      <c r="B159" s="18">
+        <v>35</v>
+      </c>
+      <c r="C159" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="E158" s="26"/>
-      <c r="F158" s="27"/>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="27"/>
-      <c r="B159" s="25">
-        <v>35</v>
-      </c>
-      <c r="C159" s="25" t="s">
+      <c r="D159" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="D159" s="25" t="s">
+      <c r="E159" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" s="27"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="27"/>
+      <c r="B160" s="18">
+        <v>36</v>
+      </c>
+      <c r="C160" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="E159" s="26"/>
-      <c r="F159" s="27"/>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="27"/>
-      <c r="B160" s="25">
-        <v>36</v>
-      </c>
-      <c r="C160" s="25" t="s">
+      <c r="D160" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="D160" s="25" t="s">
+      <c r="E160" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="27"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="27"/>
+      <c r="B161" s="18">
+        <v>37</v>
+      </c>
+      <c r="C161" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="E160" s="26"/>
-      <c r="F160" s="27"/>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="27"/>
-      <c r="B161" s="25">
-        <v>37</v>
-      </c>
-      <c r="C161" s="25" t="s">
+      <c r="D161" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="D161" s="25" t="s">
+      <c r="E161" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" s="27"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="27"/>
+      <c r="B162" s="18">
+        <v>38</v>
+      </c>
+      <c r="C162" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="E161" s="26"/>
-      <c r="F161" s="27"/>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="27"/>
-      <c r="B162" s="25">
-        <v>38</v>
-      </c>
-      <c r="C162" s="25" t="s">
+      <c r="D162" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="D162" s="25" t="s">
+      <c r="E162" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="27"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="24"/>
+      <c r="B163" s="18">
+        <v>39</v>
+      </c>
+      <c r="C163" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="E162" s="26"/>
-      <c r="F162" s="27"/>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="34"/>
-      <c r="B163" s="25">
-        <v>39</v>
-      </c>
-      <c r="C163" s="25" t="s">
+      <c r="D163" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="D163" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="E163" s="26"/>
-      <c r="F163" s="34"/>
+      <c r="E163" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F163">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:F163" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="6">
     <mergeCell ref="A2:A40"/>
     <mergeCell ref="A41:A81"/>
@@ -4811,7 +4355,7 @@
     <mergeCell ref="F2:F81"/>
     <mergeCell ref="F82:F163"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/单词.xlsx
+++ b/单词.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN相关\Zhejiang-Huangyan-Middle-School\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844766D3-648F-4F01-8510-EBB44E101007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7E3A5C-C6E0-460A-AA31-DBD1204E993A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">初中英语!$A$1:$F$163</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="632">
   <si>
     <t>单元</t>
   </si>
@@ -1013,6 +1013,2172 @@
   </si>
   <si>
     <t>outside</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    第五单元</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>panda</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iger</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lephant</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oala</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ion</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iaffe</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nmal</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ute</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>azy</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mart</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eautiful</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cary</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ind</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ind of</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊猫</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>动物园</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>老虎</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大象</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>长颈鹿</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可爱的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒散的；懒惰的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>聪明的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>美丽的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吓人的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>稍微；有点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>austra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lia</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>outh</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>frica</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>outb africa</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eg</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leep</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>riendly</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hy</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ave</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lag</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orget</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et lost</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>非洲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南非</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>腿</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡觉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>友好的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>害羞的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>救；救助</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>旗帜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷路</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lace</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ater</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>anger</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e in danger</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ut</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>own</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ut down</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ree</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ill</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vory</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ver</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e made of</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点；位置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>处于危险中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍；切</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下；向下</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍倒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死；弄死</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>象牙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过；多余</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>由…制成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Unit 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    第六单元</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ewspaper</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ead a newspaper</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>se</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oup</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ake soup</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ash</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ovie</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>go to the movie</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ust</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at out</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ouse</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rink</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ea</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rink tea</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>omorrow</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ool</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hop</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>upermarket</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ace</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tudy</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tate</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>he united states</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>merican</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ragon</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ragon boat festival</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ny</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ther</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oung</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hild</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iss</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ish</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elicious</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>报纸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>读报</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>做汤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>去电影院</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>只是</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出去吃饭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>房子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝；饮料</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝茶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游泳池</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>超市</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>man</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>男人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞赛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>州</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国、</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>端午节</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>年轻的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>思念</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可口的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>动物</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rain</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>windy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloudy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunny</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>snow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cook</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bad</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>park</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>thak a message</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>him</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>could</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>problem</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>right now</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>again</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dry</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cold</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>warm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>summer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下雨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多风的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴朗的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下雪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>做饭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>坏的；遭的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公园</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>传话</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多云的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>他</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>能；可以</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回来</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难；难题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>此刻；马上</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>再一次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>干燥的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冷的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>热的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>温暖的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜访</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加拿大</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>juice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>soon</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>europe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mountain</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>county</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>skate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>snowy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>winter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>russian</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>snowman</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rainy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>果汁；饮料</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不久；很快</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>假期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧洲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高山</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>国</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑冰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下雪的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴雨的；多雨的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit 7 第七单元</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>office</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>post office</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>police</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>police station</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>restaurant</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospital</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>street</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay phone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>near</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>across</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>front</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>behind</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>town</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>around</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>north</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>along</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>neighborhood</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>spend</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公室</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮局</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>警察</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>警局</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅馆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐馆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大街</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费电话</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…附近</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿过</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…后面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…周围</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北方</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>沿着</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>转向</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>右边</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>左边</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字路口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>街区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>花</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>monkey</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>climb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>road</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>often</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>air</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunshine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>free</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>enjoy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>easily</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>路</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>时常</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>享受</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>容易地</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit 8 第八单元</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>canada</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1020,7 +3186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1054,6 +3220,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1332,7 +3506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1402,19 +3576,40 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1427,6 +3622,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1704,10 +3914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E163" sqref="E163"/>
+    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C313" sqref="C313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1742,7 +3952,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="8">
@@ -1757,12 +3967,12 @@
       <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="35">
         <v>44410</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="8">
         <v>2</v>
       </c>
@@ -1775,10 +3985,10 @@
       <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="8">
         <v>3</v>
       </c>
@@ -1791,10 +4001,10 @@
       <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="8">
         <v>4</v>
       </c>
@@ -1807,10 +4017,10 @@
       <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="8">
         <v>5</v>
       </c>
@@ -1823,10 +4033,10 @@
       <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="8">
         <v>6</v>
       </c>
@@ -1839,10 +4049,10 @@
       <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="8">
         <v>7</v>
       </c>
@@ -1855,10 +4065,10 @@
       <c r="E8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="8">
         <v>8</v>
       </c>
@@ -1871,10 +4081,10 @@
       <c r="E9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="8">
         <v>9</v>
       </c>
@@ -1887,10 +4097,10 @@
       <c r="E10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="8">
         <v>10</v>
       </c>
@@ -1903,10 +4113,10 @@
       <c r="E11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="8">
         <v>11</v>
       </c>
@@ -1919,10 +4129,10 @@
       <c r="E12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="8">
         <v>12</v>
       </c>
@@ -1935,10 +4145,10 @@
       <c r="E13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="8">
         <v>13</v>
       </c>
@@ -1951,10 +4161,10 @@
       <c r="E14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="8">
         <v>14</v>
       </c>
@@ -1967,10 +4177,10 @@
       <c r="E15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="22"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="8">
         <v>15</v>
       </c>
@@ -1983,10 +4193,10 @@
       <c r="E16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="22"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="8">
         <v>16</v>
       </c>
@@ -1999,10 +4209,10 @@
       <c r="E17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="22"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="8">
         <v>17</v>
       </c>
@@ -2015,10 +4225,10 @@
       <c r="E18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="8">
         <v>18</v>
       </c>
@@ -2031,10 +4241,10 @@
       <c r="E19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="8">
         <v>19</v>
       </c>
@@ -2047,10 +4257,10 @@
       <c r="E20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="22"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="8">
         <v>20</v>
       </c>
@@ -2063,10 +4273,10 @@
       <c r="E21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="22"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="8">
         <v>21</v>
       </c>
@@ -2079,10 +4289,10 @@
       <c r="E22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="8">
         <v>22</v>
       </c>
@@ -2095,10 +4305,10 @@
       <c r="E23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="22"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="8">
         <v>23</v>
       </c>
@@ -2111,10 +4321,10 @@
       <c r="E24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="8">
         <v>24</v>
       </c>
@@ -2127,10 +4337,10 @@
       <c r="E25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="8">
         <v>25</v>
       </c>
@@ -2143,10 +4353,10 @@
       <c r="E26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="8">
         <v>26</v>
       </c>
@@ -2159,10 +4369,10 @@
       <c r="E27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="8">
         <v>27</v>
       </c>
@@ -2175,10 +4385,10 @@
       <c r="E28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="8">
         <v>28</v>
       </c>
@@ -2191,10 +4401,10 @@
       <c r="E29" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="31"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="8">
         <v>29</v>
       </c>
@@ -2207,10 +4417,10 @@
       <c r="E30" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="22"/>
+      <c r="F30" s="31"/>
     </row>
     <row r="31" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="8">
         <v>30</v>
       </c>
@@ -2223,10 +4433,10 @@
       <c r="E31" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="22"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="8">
         <v>31</v>
       </c>
@@ -2239,10 +4449,10 @@
       <c r="E32" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="22"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="8">
         <v>32</v>
       </c>
@@ -2255,10 +4465,10 @@
       <c r="E33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="22"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="8">
         <v>33</v>
       </c>
@@ -2271,10 +4481,10 @@
       <c r="E34" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="22"/>
+      <c r="F34" s="31"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="8">
         <v>34</v>
       </c>
@@ -2287,10 +4497,10 @@
       <c r="E35" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="22"/>
+      <c r="F35" s="31"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="8">
         <v>35</v>
       </c>
@@ -2303,10 +4513,10 @@
       <c r="E36" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="22"/>
+      <c r="F36" s="31"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="8">
         <v>36</v>
       </c>
@@ -2319,10 +4529,10 @@
       <c r="E37" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="22"/>
+      <c r="F37" s="31"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="8">
         <v>37</v>
       </c>
@@ -2335,10 +4545,10 @@
       <c r="E38" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="22"/>
+      <c r="F38" s="31"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="8">
         <v>38</v>
       </c>
@@ -2351,10 +4561,10 @@
       <c r="E39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="22"/>
+      <c r="F39" s="31"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="11">
         <v>39</v>
       </c>
@@ -2367,10 +4577,10 @@
       <c r="E40" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="29"/>
+      <c r="F40" s="36"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="30" t="s">
         <v>86</v>
       </c>
       <c r="B41" s="14">
@@ -2385,10 +4595,10 @@
       <c r="E41" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="24"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="8">
         <v>2</v>
       </c>
@@ -2401,10 +4611,10 @@
       <c r="E42" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="22"/>
+      <c r="F42" s="31"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="8">
         <v>3</v>
       </c>
@@ -2417,10 +4627,10 @@
       <c r="E43" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="22"/>
+      <c r="F43" s="31"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="8">
         <v>4</v>
       </c>
@@ -2433,10 +4643,10 @@
       <c r="E44" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="22"/>
+      <c r="F44" s="31"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="8">
         <v>5</v>
       </c>
@@ -2449,10 +4659,10 @@
       <c r="E45" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="22"/>
+      <c r="F45" s="31"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="8">
         <v>6</v>
       </c>
@@ -2465,10 +4675,10 @@
       <c r="E46" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="22"/>
+      <c r="F46" s="31"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="8">
         <v>7</v>
       </c>
@@ -2481,10 +4691,10 @@
       <c r="E47" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="22"/>
+      <c r="F47" s="31"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="8">
         <v>8</v>
       </c>
@@ -2497,10 +4707,10 @@
       <c r="E48" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="22"/>
+      <c r="F48" s="31"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="8">
         <v>9</v>
       </c>
@@ -2513,10 +4723,10 @@
       <c r="E49" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="22"/>
+      <c r="F49" s="31"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="8">
         <v>10</v>
       </c>
@@ -2529,10 +4739,10 @@
       <c r="E50" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="22"/>
+      <c r="F50" s="31"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="8">
         <v>11</v>
       </c>
@@ -2545,10 +4755,10 @@
       <c r="E51" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="22"/>
+      <c r="F51" s="31"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="8">
         <v>12</v>
       </c>
@@ -2561,10 +4771,10 @@
       <c r="E52" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="22"/>
+      <c r="F52" s="31"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="8">
         <v>13</v>
       </c>
@@ -2577,10 +4787,10 @@
       <c r="E53" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="22"/>
+      <c r="F53" s="31"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="8">
         <v>14</v>
       </c>
@@ -2593,10 +4803,10 @@
       <c r="E54" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="22"/>
+      <c r="F54" s="31"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="8">
         <v>15</v>
       </c>
@@ -2609,10 +4819,10 @@
       <c r="E55" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="22"/>
+      <c r="F55" s="31"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="8">
         <v>16</v>
       </c>
@@ -2625,10 +4835,10 @@
       <c r="E56" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="22"/>
+      <c r="F56" s="31"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="8">
         <v>17</v>
       </c>
@@ -2641,10 +4851,10 @@
       <c r="E57" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="22"/>
+      <c r="F57" s="31"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="8">
         <v>18</v>
       </c>
@@ -2657,10 +4867,10 @@
       <c r="E58" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="22"/>
+      <c r="F58" s="31"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="8">
         <v>19</v>
       </c>
@@ -2673,10 +4883,10 @@
       <c r="E59" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="22"/>
+      <c r="F59" s="31"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
+      <c r="A60" s="31"/>
       <c r="B60" s="8">
         <v>20</v>
       </c>
@@ -2689,10 +4899,10 @@
       <c r="E60" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="22"/>
+      <c r="F60" s="31"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="8">
         <v>21</v>
       </c>
@@ -2705,10 +4915,10 @@
       <c r="E61" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="22"/>
+      <c r="F61" s="31"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="8">
         <v>22</v>
       </c>
@@ -2721,10 +4931,10 @@
       <c r="E62" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="22"/>
+      <c r="F62" s="31"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="8">
         <v>23</v>
       </c>
@@ -2737,10 +4947,10 @@
       <c r="E63" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="22"/>
+      <c r="F63" s="31"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="8">
         <v>24</v>
       </c>
@@ -2753,10 +4963,10 @@
       <c r="E64" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="22"/>
+      <c r="F64" s="31"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="8">
         <v>25</v>
       </c>
@@ -2769,10 +4979,10 @@
       <c r="E65" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="22"/>
+      <c r="F65" s="31"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="8">
         <v>26</v>
       </c>
@@ -2785,10 +4995,10 @@
       <c r="E66" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="22"/>
+      <c r="F66" s="31"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="8">
         <v>27</v>
       </c>
@@ -2801,10 +5011,10 @@
       <c r="E67" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="22"/>
+      <c r="F67" s="31"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="8">
         <v>28</v>
       </c>
@@ -2817,10 +5027,10 @@
       <c r="E68" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="22"/>
+      <c r="F68" s="31"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="8">
         <v>29</v>
       </c>
@@ -2833,10 +5043,10 @@
       <c r="E69" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="22"/>
+      <c r="F69" s="31"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="8">
         <v>30</v>
       </c>
@@ -2849,10 +5059,10 @@
       <c r="E70" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="22"/>
+      <c r="F70" s="31"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
+      <c r="A71" s="31"/>
       <c r="B71" s="8">
         <v>31</v>
       </c>
@@ -2865,10 +5075,10 @@
       <c r="E71" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="22"/>
+      <c r="F71" s="31"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="8">
         <v>32</v>
       </c>
@@ -2881,10 +5091,10 @@
       <c r="E72" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F72" s="22"/>
+      <c r="F72" s="31"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="8">
         <v>33</v>
       </c>
@@ -2897,10 +5107,10 @@
       <c r="E73" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="22"/>
+      <c r="F73" s="31"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="8">
         <v>34</v>
       </c>
@@ -2913,10 +5123,10 @@
       <c r="E74" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="22"/>
+      <c r="F74" s="31"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="8">
         <v>35</v>
       </c>
@@ -2929,10 +5139,10 @@
       <c r="E75" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="22"/>
+      <c r="F75" s="31"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="8">
         <v>36</v>
       </c>
@@ -2945,10 +5155,10 @@
       <c r="E76" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="22"/>
+      <c r="F76" s="31"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
+      <c r="A77" s="31"/>
       <c r="B77" s="8">
         <v>37</v>
       </c>
@@ -2961,10 +5171,10 @@
       <c r="E77" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="22"/>
+      <c r="F77" s="31"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="22"/>
+      <c r="A78" s="31"/>
       <c r="B78" s="8">
         <v>38</v>
       </c>
@@ -2977,10 +5187,10 @@
       <c r="E78" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="22"/>
+      <c r="F78" s="31"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="22"/>
+      <c r="A79" s="31"/>
       <c r="B79" s="8">
         <v>39</v>
       </c>
@@ -2993,10 +5203,10 @@
       <c r="E79" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F79" s="22"/>
+      <c r="F79" s="31"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="22"/>
+      <c r="A80" s="31"/>
       <c r="B80" s="8">
         <v>40</v>
       </c>
@@ -3009,10 +5219,10 @@
       <c r="E80" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="22"/>
+      <c r="F80" s="31"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="25"/>
+      <c r="A81" s="33"/>
       <c r="B81" s="11">
         <v>41</v>
       </c>
@@ -3025,10 +5235,10 @@
       <c r="E81" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F81" s="30"/>
+      <c r="F81" s="37"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="26" t="s">
+      <c r="A82" s="34" t="s">
         <v>167</v>
       </c>
       <c r="B82" s="17">
@@ -3043,12 +5253,12 @@
       <c r="E82" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="31">
+      <c r="F82" s="38">
         <v>44411</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
+      <c r="A83" s="31"/>
       <c r="B83" s="18">
         <v>2</v>
       </c>
@@ -3061,10 +5271,10 @@
       <c r="E83" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F83" s="27"/>
+      <c r="F83" s="29"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="22"/>
+      <c r="A84" s="31"/>
       <c r="B84" s="18">
         <v>3</v>
       </c>
@@ -3077,10 +5287,10 @@
       <c r="E84" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="27"/>
+      <c r="F84" s="29"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="22"/>
+      <c r="A85" s="31"/>
       <c r="B85" s="18">
         <v>4</v>
       </c>
@@ -3093,10 +5303,10 @@
       <c r="E85" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="27"/>
+      <c r="F85" s="29"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="22"/>
+      <c r="A86" s="31"/>
       <c r="B86" s="18">
         <v>5</v>
       </c>
@@ -3109,10 +5319,10 @@
       <c r="E86" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F86" s="27"/>
+      <c r="F86" s="29"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
+      <c r="A87" s="31"/>
       <c r="B87" s="18">
         <v>6</v>
       </c>
@@ -3125,10 +5335,10 @@
       <c r="E87" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F87" s="27"/>
+      <c r="F87" s="29"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="22"/>
+      <c r="A88" s="31"/>
       <c r="B88" s="18">
         <v>7</v>
       </c>
@@ -3141,10 +5351,10 @@
       <c r="E88" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="27"/>
+      <c r="F88" s="29"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="22"/>
+      <c r="A89" s="31"/>
       <c r="B89" s="18">
         <v>8</v>
       </c>
@@ -3157,10 +5367,10 @@
       <c r="E89" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F89" s="27"/>
+      <c r="F89" s="29"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="22"/>
+      <c r="A90" s="31"/>
       <c r="B90" s="18">
         <v>9</v>
       </c>
@@ -3173,10 +5383,10 @@
       <c r="E90" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F90" s="27"/>
+      <c r="F90" s="29"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="22"/>
+      <c r="A91" s="31"/>
       <c r="B91" s="18">
         <v>10</v>
       </c>
@@ -3189,10 +5399,10 @@
       <c r="E91" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F91" s="27"/>
+      <c r="F91" s="29"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="22"/>
+      <c r="A92" s="31"/>
       <c r="B92" s="18">
         <v>11</v>
       </c>
@@ -3205,10 +5415,10 @@
       <c r="E92" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F92" s="27"/>
+      <c r="F92" s="29"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="22"/>
+      <c r="A93" s="31"/>
       <c r="B93" s="18">
         <v>12</v>
       </c>
@@ -3221,10 +5431,10 @@
       <c r="E93" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F93" s="27"/>
+      <c r="F93" s="29"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="22"/>
+      <c r="A94" s="31"/>
       <c r="B94" s="18">
         <v>13</v>
       </c>
@@ -3237,10 +5447,10 @@
       <c r="E94" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="27"/>
+      <c r="F94" s="29"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="22"/>
+      <c r="A95" s="31"/>
       <c r="B95" s="18">
         <v>14</v>
       </c>
@@ -3253,10 +5463,10 @@
       <c r="E95" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F95" s="27"/>
+      <c r="F95" s="29"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="22"/>
+      <c r="A96" s="31"/>
       <c r="B96" s="18">
         <v>15</v>
       </c>
@@ -3269,10 +5479,10 @@
       <c r="E96" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="27"/>
+      <c r="F96" s="29"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="22"/>
+      <c r="A97" s="31"/>
       <c r="B97" s="18">
         <v>16</v>
       </c>
@@ -3285,10 +5495,10 @@
       <c r="E97" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F97" s="27"/>
+      <c r="F97" s="29"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="22"/>
+      <c r="A98" s="31"/>
       <c r="B98" s="18">
         <v>17</v>
       </c>
@@ -3301,10 +5511,10 @@
       <c r="E98" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F98" s="27"/>
+      <c r="F98" s="29"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="22"/>
+      <c r="A99" s="31"/>
       <c r="B99" s="18">
         <v>18</v>
       </c>
@@ -3317,10 +5527,10 @@
       <c r="E99" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="27"/>
+      <c r="F99" s="29"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="22"/>
+      <c r="A100" s="31"/>
       <c r="B100" s="18">
         <v>19</v>
       </c>
@@ -3333,10 +5543,10 @@
       <c r="E100" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F100" s="27"/>
+      <c r="F100" s="29"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="22"/>
+      <c r="A101" s="31"/>
       <c r="B101" s="18">
         <v>20</v>
       </c>
@@ -3349,10 +5559,10 @@
       <c r="E101" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="27"/>
+      <c r="F101" s="29"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="22"/>
+      <c r="A102" s="31"/>
       <c r="B102" s="18">
         <v>21</v>
       </c>
@@ -3365,10 +5575,10 @@
       <c r="E102" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F102" s="27"/>
+      <c r="F102" s="29"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="22"/>
+      <c r="A103" s="31"/>
       <c r="B103" s="18">
         <v>22</v>
       </c>
@@ -3381,10 +5591,10 @@
       <c r="E103" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F103" s="27"/>
+      <c r="F103" s="29"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="22"/>
+      <c r="A104" s="31"/>
       <c r="B104" s="18">
         <v>23</v>
       </c>
@@ -3397,10 +5607,10 @@
       <c r="E104" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F104" s="27"/>
+      <c r="F104" s="29"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="22"/>
+      <c r="A105" s="31"/>
       <c r="B105" s="18">
         <v>24</v>
       </c>
@@ -3413,10 +5623,10 @@
       <c r="E105" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F105" s="27"/>
+      <c r="F105" s="29"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="22"/>
+      <c r="A106" s="31"/>
       <c r="B106" s="18">
         <v>25</v>
       </c>
@@ -3429,10 +5639,10 @@
       <c r="E106" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="27"/>
+      <c r="F106" s="29"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="22"/>
+      <c r="A107" s="31"/>
       <c r="B107" s="18">
         <v>26</v>
       </c>
@@ -3445,10 +5655,10 @@
       <c r="E107" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F107" s="27"/>
+      <c r="F107" s="29"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="22"/>
+      <c r="A108" s="31"/>
       <c r="B108" s="18">
         <v>27</v>
       </c>
@@ -3461,10 +5671,10 @@
       <c r="E108" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F108" s="27"/>
+      <c r="F108" s="29"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="22"/>
+      <c r="A109" s="31"/>
       <c r="B109" s="18">
         <v>28</v>
       </c>
@@ -3477,10 +5687,10 @@
       <c r="E109" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F109" s="27"/>
+      <c r="F109" s="29"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="22"/>
+      <c r="A110" s="31"/>
       <c r="B110" s="18">
         <v>29</v>
       </c>
@@ -3493,10 +5703,10 @@
       <c r="E110" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F110" s="27"/>
+      <c r="F110" s="29"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="22"/>
+      <c r="A111" s="31"/>
       <c r="B111" s="18">
         <v>30</v>
       </c>
@@ -3509,10 +5719,10 @@
       <c r="E111" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F111" s="27"/>
+      <c r="F111" s="29"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="22"/>
+      <c r="A112" s="31"/>
       <c r="B112" s="18">
         <v>31</v>
       </c>
@@ -3525,10 +5735,10 @@
       <c r="E112" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F112" s="27"/>
+      <c r="F112" s="29"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="22"/>
+      <c r="A113" s="31"/>
       <c r="B113" s="18">
         <v>32</v>
       </c>
@@ -3541,10 +5751,10 @@
       <c r="E113" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F113" s="27"/>
+      <c r="F113" s="29"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="22"/>
+      <c r="A114" s="31"/>
       <c r="B114" s="18">
         <v>33</v>
       </c>
@@ -3557,10 +5767,10 @@
       <c r="E114" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F114" s="27"/>
+      <c r="F114" s="29"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="22"/>
+      <c r="A115" s="31"/>
       <c r="B115" s="18">
         <v>34</v>
       </c>
@@ -3573,10 +5783,10 @@
       <c r="E115" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F115" s="27"/>
+      <c r="F115" s="29"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="22"/>
+      <c r="A116" s="31"/>
       <c r="B116" s="18">
         <v>35</v>
       </c>
@@ -3589,10 +5799,10 @@
       <c r="E116" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F116" s="27"/>
+      <c r="F116" s="29"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="22"/>
+      <c r="A117" s="31"/>
       <c r="B117" s="18">
         <v>36</v>
       </c>
@@ -3605,10 +5815,10 @@
       <c r="E117" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F117" s="27"/>
+      <c r="F117" s="29"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="22"/>
+      <c r="A118" s="31"/>
       <c r="B118" s="18">
         <v>37</v>
       </c>
@@ -3621,10 +5831,10 @@
       <c r="E118" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F118" s="27"/>
+      <c r="F118" s="29"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="22"/>
+      <c r="A119" s="31"/>
       <c r="B119" s="18">
         <v>38</v>
       </c>
@@ -3637,10 +5847,10 @@
       <c r="E119" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F119" s="27"/>
+      <c r="F119" s="29"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="22"/>
+      <c r="A120" s="31"/>
       <c r="B120" s="18">
         <v>39</v>
       </c>
@@ -3653,10 +5863,10 @@
       <c r="E120" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F120" s="27"/>
+      <c r="F120" s="29"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="22"/>
+      <c r="A121" s="31"/>
       <c r="B121" s="18">
         <v>40</v>
       </c>
@@ -3669,10 +5879,10 @@
       <c r="E121" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F121" s="27"/>
+      <c r="F121" s="29"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="22"/>
+      <c r="A122" s="31"/>
       <c r="B122" s="18">
         <v>41</v>
       </c>
@@ -3685,10 +5895,10 @@
       <c r="E122" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F122" s="27"/>
+      <c r="F122" s="29"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="22"/>
+      <c r="A123" s="31"/>
       <c r="B123" s="18">
         <v>42</v>
       </c>
@@ -3701,10 +5911,10 @@
       <c r="E123" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F123" s="27"/>
+      <c r="F123" s="29"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="23"/>
+      <c r="A124" s="32"/>
       <c r="B124" s="20">
         <v>43</v>
       </c>
@@ -3717,10 +5927,10 @@
       <c r="E124" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F124" s="27"/>
+      <c r="F124" s="29"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="27" t="s">
+      <c r="A125" s="29" t="s">
         <v>252</v>
       </c>
       <c r="B125" s="17">
@@ -3735,10 +5945,10 @@
       <c r="E125" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F125" s="27"/>
+      <c r="F125" s="29"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="27"/>
+      <c r="A126" s="29"/>
       <c r="B126" s="18">
         <v>2</v>
       </c>
@@ -3751,10 +5961,10 @@
       <c r="E126" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F126" s="27"/>
+      <c r="F126" s="29"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="27"/>
+      <c r="A127" s="29"/>
       <c r="B127" s="18">
         <v>3</v>
       </c>
@@ -3767,10 +5977,10 @@
       <c r="E127" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F127" s="27"/>
+      <c r="F127" s="29"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="27"/>
+      <c r="A128" s="29"/>
       <c r="B128" s="18">
         <v>4</v>
       </c>
@@ -3783,10 +5993,10 @@
       <c r="E128" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F128" s="27"/>
+      <c r="F128" s="29"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="27"/>
+      <c r="A129" s="29"/>
       <c r="B129" s="18">
         <v>5</v>
       </c>
@@ -3799,10 +6009,10 @@
       <c r="E129" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F129" s="27"/>
+      <c r="F129" s="29"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="27"/>
+      <c r="A130" s="29"/>
       <c r="B130" s="18">
         <v>6</v>
       </c>
@@ -3815,10 +6025,10 @@
       <c r="E130" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F130" s="27"/>
+      <c r="F130" s="29"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="27"/>
+      <c r="A131" s="29"/>
       <c r="B131" s="18">
         <v>7</v>
       </c>
@@ -3831,10 +6041,10 @@
       <c r="E131" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F131" s="27"/>
+      <c r="F131" s="29"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="27"/>
+      <c r="A132" s="29"/>
       <c r="B132" s="18">
         <v>8</v>
       </c>
@@ -3847,10 +6057,10 @@
       <c r="E132" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F132" s="27"/>
+      <c r="F132" s="29"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="27"/>
+      <c r="A133" s="29"/>
       <c r="B133" s="18">
         <v>9</v>
       </c>
@@ -3863,10 +6073,10 @@
       <c r="E133" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F133" s="27"/>
+      <c r="F133" s="29"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="27"/>
+      <c r="A134" s="29"/>
       <c r="B134" s="18">
         <v>10</v>
       </c>
@@ -3879,10 +6089,10 @@
       <c r="E134" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F134" s="27"/>
+      <c r="F134" s="29"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="27"/>
+      <c r="A135" s="29"/>
       <c r="B135" s="18">
         <v>11</v>
       </c>
@@ -3895,10 +6105,10 @@
       <c r="E135" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F135" s="27"/>
+      <c r="F135" s="29"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="27"/>
+      <c r="A136" s="29"/>
       <c r="B136" s="18">
         <v>12</v>
       </c>
@@ -3911,10 +6121,10 @@
       <c r="E136" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F136" s="27"/>
+      <c r="F136" s="29"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="27"/>
+      <c r="A137" s="29"/>
       <c r="B137" s="18">
         <v>13</v>
       </c>
@@ -3927,10 +6137,10 @@
       <c r="E137" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F137" s="27"/>
+      <c r="F137" s="29"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="27"/>
+      <c r="A138" s="29"/>
       <c r="B138" s="18">
         <v>14</v>
       </c>
@@ -3943,10 +6153,10 @@
       <c r="E138" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F138" s="27"/>
+      <c r="F138" s="29"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="27"/>
+      <c r="A139" s="29"/>
       <c r="B139" s="18">
         <v>15</v>
       </c>
@@ -3959,10 +6169,10 @@
       <c r="E139" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F139" s="27"/>
+      <c r="F139" s="29"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="27"/>
+      <c r="A140" s="29"/>
       <c r="B140" s="18">
         <v>16</v>
       </c>
@@ -3975,10 +6185,10 @@
       <c r="E140" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F140" s="27"/>
+      <c r="F140" s="29"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="27"/>
+      <c r="A141" s="29"/>
       <c r="B141" s="18">
         <v>17</v>
       </c>
@@ -3991,10 +6201,10 @@
       <c r="E141" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F141" s="27"/>
+      <c r="F141" s="29"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="27"/>
+      <c r="A142" s="29"/>
       <c r="B142" s="18">
         <v>18</v>
       </c>
@@ -4007,10 +6217,10 @@
       <c r="E142" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F142" s="27"/>
+      <c r="F142" s="29"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="27"/>
+      <c r="A143" s="29"/>
       <c r="B143" s="18">
         <v>19</v>
       </c>
@@ -4023,10 +6233,10 @@
       <c r="E143" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F143" s="27"/>
+      <c r="F143" s="29"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="27"/>
+      <c r="A144" s="29"/>
       <c r="B144" s="18">
         <v>20</v>
       </c>
@@ -4039,10 +6249,10 @@
       <c r="E144" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F144" s="27"/>
+      <c r="F144" s="29"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="27"/>
+      <c r="A145" s="29"/>
       <c r="B145" s="18">
         <v>21</v>
       </c>
@@ -4055,10 +6265,10 @@
       <c r="E145" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F145" s="27"/>
+      <c r="F145" s="29"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="27"/>
+      <c r="A146" s="29"/>
       <c r="B146" s="18">
         <v>22</v>
       </c>
@@ -4071,10 +6281,10 @@
       <c r="E146" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F146" s="27"/>
+      <c r="F146" s="29"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="27"/>
+      <c r="A147" s="29"/>
       <c r="B147" s="18">
         <v>23</v>
       </c>
@@ -4087,10 +6297,10 @@
       <c r="E147" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F147" s="27"/>
+      <c r="F147" s="29"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="27"/>
+      <c r="A148" s="29"/>
       <c r="B148" s="18">
         <v>24</v>
       </c>
@@ -4103,10 +6313,10 @@
       <c r="E148" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F148" s="27"/>
+      <c r="F148" s="29"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="27"/>
+      <c r="A149" s="29"/>
       <c r="B149" s="18">
         <v>25</v>
       </c>
@@ -4119,10 +6329,10 @@
       <c r="E149" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F149" s="27"/>
+      <c r="F149" s="29"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="27"/>
+      <c r="A150" s="29"/>
       <c r="B150" s="18">
         <v>26</v>
       </c>
@@ -4135,10 +6345,10 @@
       <c r="E150" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F150" s="27"/>
+      <c r="F150" s="29"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="27"/>
+      <c r="A151" s="29"/>
       <c r="B151" s="18">
         <v>27</v>
       </c>
@@ -4151,10 +6361,10 @@
       <c r="E151" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F151" s="27"/>
+      <c r="F151" s="29"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="27"/>
+      <c r="A152" s="29"/>
       <c r="B152" s="18">
         <v>28</v>
       </c>
@@ -4167,10 +6377,10 @@
       <c r="E152" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F152" s="27"/>
+      <c r="F152" s="29"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="27"/>
+      <c r="A153" s="29"/>
       <c r="B153" s="18">
         <v>29</v>
       </c>
@@ -4183,10 +6393,10 @@
       <c r="E153" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F153" s="27"/>
+      <c r="F153" s="29"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="27"/>
+      <c r="A154" s="29"/>
       <c r="B154" s="18">
         <v>30</v>
       </c>
@@ -4199,10 +6409,10 @@
       <c r="E154" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F154" s="27"/>
+      <c r="F154" s="29"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="27"/>
+      <c r="A155" s="29"/>
       <c r="B155" s="18">
         <v>31</v>
       </c>
@@ -4215,10 +6425,10 @@
       <c r="E155" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F155" s="27"/>
+      <c r="F155" s="29"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="27"/>
+      <c r="A156" s="29"/>
       <c r="B156" s="18">
         <v>32</v>
       </c>
@@ -4231,10 +6441,10 @@
       <c r="E156" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F156" s="27"/>
+      <c r="F156" s="29"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="27"/>
+      <c r="A157" s="29"/>
       <c r="B157" s="18">
         <v>33</v>
       </c>
@@ -4247,10 +6457,10 @@
       <c r="E157" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F157" s="27"/>
+      <c r="F157" s="29"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="27"/>
+      <c r="A158" s="29"/>
       <c r="B158" s="18">
         <v>34</v>
       </c>
@@ -4263,10 +6473,10 @@
       <c r="E158" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F158" s="27"/>
+      <c r="F158" s="29"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="27"/>
+      <c r="A159" s="29"/>
       <c r="B159" s="18">
         <v>35</v>
       </c>
@@ -4279,10 +6489,10 @@
       <c r="E159" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F159" s="27"/>
+      <c r="F159" s="29"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="27"/>
+      <c r="A160" s="29"/>
       <c r="B160" s="18">
         <v>36</v>
       </c>
@@ -4295,10 +6505,10 @@
       <c r="E160" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F160" s="27"/>
+      <c r="F160" s="29"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="27"/>
+      <c r="A161" s="29"/>
       <c r="B161" s="18">
         <v>37</v>
       </c>
@@ -4311,10 +6521,10 @@
       <c r="E161" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F161" s="27"/>
+      <c r="F161" s="29"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="27"/>
+      <c r="A162" s="29"/>
       <c r="B162" s="18">
         <v>38</v>
       </c>
@@ -4327,27 +6537,2383 @@
       <c r="E162" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F162" s="27"/>
+      <c r="F162" s="29"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="24"/>
-      <c r="B163" s="18">
+      <c r="A163" s="29"/>
+      <c r="B163" s="23">
         <v>39</v>
       </c>
-      <c r="C163" s="18" t="s">
+      <c r="C163" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="D163" s="18" t="s">
+      <c r="D163" s="23" t="s">
         <v>328</v>
       </c>
       <c r="E163" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F163" s="24"/>
+      <c r="F163" s="29"/>
+    </row>
+    <row r="164" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="B164" s="22">
+        <v>1</v>
+      </c>
+      <c r="C164" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="D164" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="E164" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" s="28">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="27"/>
+      <c r="B165" s="22">
+        <v>2</v>
+      </c>
+      <c r="C165" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="D165" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="E165" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" s="29"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="27"/>
+      <c r="B166" s="22">
+        <v>3</v>
+      </c>
+      <c r="C166" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="D166" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="E166" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" s="29"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="27"/>
+      <c r="B167" s="22">
+        <v>4</v>
+      </c>
+      <c r="C167" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="D167" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="E167" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" s="29"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="27"/>
+      <c r="B168" s="22">
+        <v>5</v>
+      </c>
+      <c r="C168" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="D168" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="E168" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F168" s="29"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="27"/>
+      <c r="B169" s="22">
+        <v>6</v>
+      </c>
+      <c r="C169" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="D169" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="E169" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169" s="29"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="27"/>
+      <c r="B170" s="22">
+        <v>7</v>
+      </c>
+      <c r="C170" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D170" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="E170" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" s="29"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="27"/>
+      <c r="B171" s="22">
+        <v>8</v>
+      </c>
+      <c r="C171" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="D171" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="E171" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" s="29"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="27"/>
+      <c r="B172" s="22">
+        <v>9</v>
+      </c>
+      <c r="C172" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="D172" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="E172" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" s="29"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="27"/>
+      <c r="B173" s="22">
+        <v>10</v>
+      </c>
+      <c r="C173" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="D173" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="E173" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="29"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="27"/>
+      <c r="B174" s="22">
+        <v>11</v>
+      </c>
+      <c r="C174" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="D174" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="E174" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" s="29"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="27"/>
+      <c r="B175" s="22">
+        <v>12</v>
+      </c>
+      <c r="C175" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D175" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="E175" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F175" s="29"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="27"/>
+      <c r="B176" s="22">
+        <v>13</v>
+      </c>
+      <c r="C176" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="D176" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="E176" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" s="29"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="27"/>
+      <c r="B177" s="22">
+        <v>14</v>
+      </c>
+      <c r="C177" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="D177" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="E177" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" s="29"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="27"/>
+      <c r="B178" s="22">
+        <v>15</v>
+      </c>
+      <c r="C178" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="D178" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="E178" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" s="29"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="27"/>
+      <c r="B179" s="22">
+        <v>16</v>
+      </c>
+      <c r="C179" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="D179" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="E179" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" s="29"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="27"/>
+      <c r="B180" s="22">
+        <v>17</v>
+      </c>
+      <c r="C180" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="D180" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="E180" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" s="29"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="27"/>
+      <c r="B181" s="22">
+        <v>18</v>
+      </c>
+      <c r="C181" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="D181" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="E181" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" s="29"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="27"/>
+      <c r="B182" s="22">
+        <v>19</v>
+      </c>
+      <c r="C182" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="D182" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="E182" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F182" s="29"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="27"/>
+      <c r="B183" s="22">
+        <v>20</v>
+      </c>
+      <c r="C183" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="D183" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="E183" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183" s="29"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="27"/>
+      <c r="B184" s="22">
+        <v>21</v>
+      </c>
+      <c r="C184" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D184" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="E184" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F184" s="29"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="27"/>
+      <c r="B185" s="22">
+        <v>22</v>
+      </c>
+      <c r="C185" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="D185" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="E185" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F185" s="29"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="27"/>
+      <c r="B186" s="22">
+        <v>23</v>
+      </c>
+      <c r="C186" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="D186" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="E186" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F186" s="29"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="27"/>
+      <c r="B187" s="22">
+        <v>24</v>
+      </c>
+      <c r="C187" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="D187" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="E187" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F187" s="29"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="27"/>
+      <c r="B188" s="22">
+        <v>25</v>
+      </c>
+      <c r="C188" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="D188" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="E188" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F188" s="29"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="27"/>
+      <c r="B189" s="22">
+        <v>26</v>
+      </c>
+      <c r="C189" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="D189" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="E189" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189" s="29"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="27"/>
+      <c r="B190" s="22">
+        <v>27</v>
+      </c>
+      <c r="C190" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="D190" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="E190" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F190" s="29"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="27"/>
+      <c r="B191" s="22">
+        <v>28</v>
+      </c>
+      <c r="C191" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="D191" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="E191" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F191" s="29"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="27"/>
+      <c r="B192" s="22">
+        <v>29</v>
+      </c>
+      <c r="C192" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="D192" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="E192" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F192" s="29"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="27"/>
+      <c r="B193" s="22">
+        <v>30</v>
+      </c>
+      <c r="C193" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="D193" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="E193" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F193" s="29"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="27"/>
+      <c r="B194" s="22">
+        <v>31</v>
+      </c>
+      <c r="C194" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="D194" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="E194" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194" s="29"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="27"/>
+      <c r="B195" s="22">
+        <v>32</v>
+      </c>
+      <c r="C195" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="D195" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="E195" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F195" s="29"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="27"/>
+      <c r="B196" s="22">
+        <v>33</v>
+      </c>
+      <c r="C196" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="D196" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="E196" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F196" s="29"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="27"/>
+      <c r="B197" s="22">
+        <v>34</v>
+      </c>
+      <c r="C197" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="D197" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="E197" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F197" s="29"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="27"/>
+      <c r="B198" s="22">
+        <v>35</v>
+      </c>
+      <c r="C198" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D198" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="E198" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F198" s="29"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="27"/>
+      <c r="B199" s="22">
+        <v>36</v>
+      </c>
+      <c r="C199" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="D199" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="E199" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F199" s="29"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="27"/>
+      <c r="B200" s="22">
+        <v>37</v>
+      </c>
+      <c r="C200" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="D200" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="E200" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F200" s="29"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="27"/>
+      <c r="B201" s="22">
+        <v>38</v>
+      </c>
+      <c r="C201" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="D201" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="E201" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F201" s="29"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="27"/>
+      <c r="B202" s="22">
+        <v>39</v>
+      </c>
+      <c r="C202" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="D202" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="E202" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F202" s="29"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="27"/>
+      <c r="B203" s="22">
+        <v>40</v>
+      </c>
+      <c r="C203" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="D203" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="E203" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F203" s="29"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="27"/>
+      <c r="B204" s="22">
+        <v>41</v>
+      </c>
+      <c r="C204" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="D204" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="E204" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F204" s="29"/>
+    </row>
+    <row r="205" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="B205" s="22">
+        <v>1</v>
+      </c>
+      <c r="C205" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="D205" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="E205" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F205" s="29"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="27"/>
+      <c r="B206" s="22">
+        <v>2</v>
+      </c>
+      <c r="C206" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="D206" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="E206" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F206" s="29"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="27"/>
+      <c r="B207" s="22">
+        <v>3</v>
+      </c>
+      <c r="C207" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="D207" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="E207" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F207" s="29"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="27"/>
+      <c r="B208" s="22">
+        <v>4</v>
+      </c>
+      <c r="C208" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="D208" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="E208" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F208" s="29"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="27"/>
+      <c r="B209" s="22">
+        <v>5</v>
+      </c>
+      <c r="C209" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="D209" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="E209" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F209" s="29"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="27"/>
+      <c r="B210" s="22">
+        <v>6</v>
+      </c>
+      <c r="C210" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="D210" s="26" t="s">
+        <v>481</v>
+      </c>
+      <c r="E210" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F210" s="29"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="27"/>
+      <c r="B211" s="22">
+        <v>7</v>
+      </c>
+      <c r="C211" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="D211" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="E211" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F211" s="29"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="27"/>
+      <c r="B212" s="22">
+        <v>8</v>
+      </c>
+      <c r="C212" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="D212" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="E212" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F212" s="29"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="27"/>
+      <c r="B213" s="22">
+        <v>9</v>
+      </c>
+      <c r="C213" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="D213" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="E213" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F213" s="29"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="27"/>
+      <c r="B214" s="22">
+        <v>10</v>
+      </c>
+      <c r="C214" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="D214" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="E214" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F214" s="29"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="27"/>
+      <c r="B215" s="22">
+        <v>11</v>
+      </c>
+      <c r="C215" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="D215" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="E215" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F215" s="29"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="27"/>
+      <c r="B216" s="22">
+        <v>12</v>
+      </c>
+      <c r="C216" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="D216" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="E216" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F216" s="29"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="27"/>
+      <c r="B217" s="22">
+        <v>13</v>
+      </c>
+      <c r="C217" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="D217" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="E217" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F217" s="29"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="27"/>
+      <c r="B218" s="22">
+        <v>14</v>
+      </c>
+      <c r="C218" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D218" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="E218" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F218" s="29"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="27"/>
+      <c r="B219" s="22">
+        <v>15</v>
+      </c>
+      <c r="C219" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="D219" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E219" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F219" s="29"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="27"/>
+      <c r="B220" s="22">
+        <v>16</v>
+      </c>
+      <c r="C220" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="D220" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="E220" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F220" s="29"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="27"/>
+      <c r="B221" s="22">
+        <v>17</v>
+      </c>
+      <c r="C221" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="D221" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E221" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F221" s="29"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="27"/>
+      <c r="B222" s="22">
+        <v>18</v>
+      </c>
+      <c r="C222" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="D222" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E222" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F222" s="29"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="27"/>
+      <c r="B223" s="22">
+        <v>19</v>
+      </c>
+      <c r="C223" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="D223" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="E223" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F223" s="29"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="27"/>
+      <c r="B224" s="22">
+        <v>20</v>
+      </c>
+      <c r="C224" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="D224" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E224" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F224" s="29"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="27"/>
+      <c r="B225" s="22">
+        <v>21</v>
+      </c>
+      <c r="C225" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="D225" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="E225" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F225" s="29"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="27"/>
+      <c r="B226" s="22">
+        <v>22</v>
+      </c>
+      <c r="C226" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="D226" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="E226" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F226" s="29"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="27"/>
+      <c r="B227" s="22">
+        <v>23</v>
+      </c>
+      <c r="C227" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="D227" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="E227" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F227" s="29"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="27"/>
+      <c r="B228" s="22">
+        <v>24</v>
+      </c>
+      <c r="C228" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="D228" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="E228" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F228" s="29"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="27"/>
+      <c r="B229" s="22">
+        <v>25</v>
+      </c>
+      <c r="C229" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="D229" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="E229" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F229" s="29"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="27"/>
+      <c r="B230" s="22">
+        <v>26</v>
+      </c>
+      <c r="C230" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="D230" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="E230" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F230" s="29"/>
+    </row>
+    <row r="231" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A231" s="27"/>
+      <c r="B231" s="22">
+        <v>27</v>
+      </c>
+      <c r="C231" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="D231" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="E231" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F231" s="29"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="27"/>
+      <c r="B232" s="22">
+        <v>28</v>
+      </c>
+      <c r="C232" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="D232" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="E232" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F232" s="29"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="27"/>
+      <c r="B233" s="22">
+        <v>29</v>
+      </c>
+      <c r="C233" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="D233" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="E233" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F233" s="29"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="27"/>
+      <c r="B234" s="22">
+        <v>30</v>
+      </c>
+      <c r="C234" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="D234" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="E234" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F234" s="29"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="27"/>
+      <c r="B235" s="22">
+        <v>31</v>
+      </c>
+      <c r="C235" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="D235" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="E235" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F235" s="29"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="27"/>
+      <c r="B236" s="22">
+        <v>32</v>
+      </c>
+      <c r="C236" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="D236" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="E236" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F236" s="29"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="27"/>
+      <c r="B237" s="22">
+        <v>33</v>
+      </c>
+      <c r="C237" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="D237" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="E237" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F237" s="29"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="39"/>
+      <c r="B238" s="25">
+        <v>34</v>
+      </c>
+      <c r="C238" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="D238" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="E238" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F238" s="29"/>
+    </row>
+    <row r="239" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="39" t="s">
+        <v>557</v>
+      </c>
+      <c r="B239" s="24">
+        <v>1</v>
+      </c>
+      <c r="C239" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="D239" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="E239" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" s="28">
+        <v>44413</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="42"/>
+      <c r="B240" s="24">
+        <v>2</v>
+      </c>
+      <c r="C240" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="D240" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="E240" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F240" s="29"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="42"/>
+      <c r="B241" s="24">
+        <v>3</v>
+      </c>
+      <c r="C241" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="D241" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="E241" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F241" s="29"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="42"/>
+      <c r="B242" s="24">
+        <v>4</v>
+      </c>
+      <c r="C242" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="D242" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="E242" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F242" s="29"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="42"/>
+      <c r="B243" s="24">
+        <v>5</v>
+      </c>
+      <c r="C243" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="D243" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="E243" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F243" s="29"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="42"/>
+      <c r="B244" s="24">
+        <v>6</v>
+      </c>
+      <c r="C244" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="D244" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="E244" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F244" s="29"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="42"/>
+      <c r="B245" s="24">
+        <v>7</v>
+      </c>
+      <c r="C245" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="D245" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="E245" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F245" s="29"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="42"/>
+      <c r="B246" s="24">
+        <v>8</v>
+      </c>
+      <c r="C246" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="D246" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="E246" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F246" s="29"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="42"/>
+      <c r="B247" s="24">
+        <v>9</v>
+      </c>
+      <c r="C247" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="D247" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="E247" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F247" s="29"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="42"/>
+      <c r="B248" s="24">
+        <v>10</v>
+      </c>
+      <c r="C248" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="D248" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="E248" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F248" s="29"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="42"/>
+      <c r="B249" s="24">
+        <v>11</v>
+      </c>
+      <c r="C249" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="D249" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="E249" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F249" s="29"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="42"/>
+      <c r="B250" s="24">
+        <v>12</v>
+      </c>
+      <c r="C250" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="D250" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="E250" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F250" s="29"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="42"/>
+      <c r="B251" s="24">
+        <v>13</v>
+      </c>
+      <c r="C251" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="D251" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="E251" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F251" s="29"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="42"/>
+      <c r="B252" s="24">
+        <v>14</v>
+      </c>
+      <c r="C252" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="D252" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="E252" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F252" s="29"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="42"/>
+      <c r="B253" s="24">
+        <v>15</v>
+      </c>
+      <c r="C253" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="D253" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="E253" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F253" s="29"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="42"/>
+      <c r="B254" s="24">
+        <v>16</v>
+      </c>
+      <c r="C254" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="D254" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="E254" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F254" s="29"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="42"/>
+      <c r="B255" s="24">
+        <v>17</v>
+      </c>
+      <c r="C255" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="D255" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="E255" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F255" s="29"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="42"/>
+      <c r="B256" s="24">
+        <v>18</v>
+      </c>
+      <c r="C256" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="D256" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="E256" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F256" s="29"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="42"/>
+      <c r="B257" s="24">
+        <v>19</v>
+      </c>
+      <c r="C257" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="D257" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="E257" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F257" s="29"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="42"/>
+      <c r="B258" s="24">
+        <v>20</v>
+      </c>
+      <c r="C258" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="D258" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="E258" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F258" s="29"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="42"/>
+      <c r="B259" s="24">
+        <v>21</v>
+      </c>
+      <c r="C259" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="D259" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="E259" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F259" s="29"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="42"/>
+      <c r="B260" s="24">
+        <v>22</v>
+      </c>
+      <c r="C260" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="D260" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="E260" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F260" s="29"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="42"/>
+      <c r="B261" s="24">
+        <v>23</v>
+      </c>
+      <c r="C261" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="D261" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="E261" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F261" s="29"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="42"/>
+      <c r="B262" s="24">
+        <v>24</v>
+      </c>
+      <c r="C262" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="D262" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="E262" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F262" s="29"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="42"/>
+      <c r="B263" s="24">
+        <v>25</v>
+      </c>
+      <c r="C263" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="D263" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="E263" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F263" s="29"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="42"/>
+      <c r="B264" s="24">
+        <v>26</v>
+      </c>
+      <c r="C264" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="D264" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="E264" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F264" s="29"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="42"/>
+      <c r="B265" s="24">
+        <v>27</v>
+      </c>
+      <c r="C265" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="D265" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="E265" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F265" s="29"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="42"/>
+      <c r="B266" s="24">
+        <v>28</v>
+      </c>
+      <c r="C266" s="24" t="s">
+        <v>532</v>
+      </c>
+      <c r="D266" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="E266" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F266" s="29"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="42"/>
+      <c r="B267" s="24">
+        <v>29</v>
+      </c>
+      <c r="C267" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="D267" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="E267" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F267" s="29"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="42"/>
+      <c r="B268" s="24">
+        <v>30</v>
+      </c>
+      <c r="C268" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="D268" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="E268" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F268" s="29"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="42"/>
+      <c r="B269" s="24">
+        <v>31</v>
+      </c>
+      <c r="C269" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="D269" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="E269" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F269" s="29"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="42"/>
+      <c r="B270" s="24">
+        <v>32</v>
+      </c>
+      <c r="C270" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="D270" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="E270" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F270" s="29"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="42"/>
+      <c r="B271" s="24">
+        <v>33</v>
+      </c>
+      <c r="C271" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="D271" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="E271" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F271" s="29"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="42"/>
+      <c r="B272" s="24">
+        <v>34</v>
+      </c>
+      <c r="C272" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="D272" s="24" t="s">
+        <v>552</v>
+      </c>
+      <c r="E272" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F272" s="29"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="42"/>
+      <c r="B273" s="24">
+        <v>35</v>
+      </c>
+      <c r="C273" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="D273" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="E273" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F273" s="29"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="42"/>
+      <c r="B274" s="24">
+        <v>36</v>
+      </c>
+      <c r="C274" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="D274" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="E274" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F274" s="29"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="42"/>
+      <c r="B275" s="24">
+        <v>37</v>
+      </c>
+      <c r="C275" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="D275" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="E275" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F275" s="29"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="43"/>
+      <c r="B276" s="24">
+        <v>38</v>
+      </c>
+      <c r="C276" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="D276" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="E276" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F276" s="29"/>
+    </row>
+    <row r="277" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="27" t="s">
+        <v>630</v>
+      </c>
+      <c r="B277" s="24">
+        <v>1</v>
+      </c>
+      <c r="C277" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="D277" s="24" t="s">
+        <v>584</v>
+      </c>
+      <c r="E277" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F277" s="29"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="27"/>
+      <c r="B278" s="24">
+        <v>2</v>
+      </c>
+      <c r="C278" s="24" t="s">
+        <v>559</v>
+      </c>
+      <c r="D278" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="E278" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F278" s="29"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="27"/>
+      <c r="B279" s="24">
+        <v>3</v>
+      </c>
+      <c r="C279" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="D279" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="E279" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F279" s="29"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="27"/>
+      <c r="B280" s="24">
+        <v>4</v>
+      </c>
+      <c r="C280" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="D280" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="E280" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F280" s="29"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="27"/>
+      <c r="B281" s="24">
+        <v>5</v>
+      </c>
+      <c r="C281" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="D281" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="E281" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F281" s="29"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="27"/>
+      <c r="B282" s="24">
+        <v>6</v>
+      </c>
+      <c r="C282" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="D282" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="E282" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F282" s="29"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="27"/>
+      <c r="B283" s="24">
+        <v>7</v>
+      </c>
+      <c r="C283" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="D283" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="E283" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F283" s="29"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="27"/>
+      <c r="B284" s="24">
+        <v>8</v>
+      </c>
+      <c r="C284" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="D284" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="E284" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F284" s="29"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="27"/>
+      <c r="B285" s="24">
+        <v>9</v>
+      </c>
+      <c r="C285" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="D285" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="E285" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F285" s="29"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="27"/>
+      <c r="B286" s="24">
+        <v>10</v>
+      </c>
+      <c r="C286" s="24" t="s">
+        <v>567</v>
+      </c>
+      <c r="D286" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="E286" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F286" s="29"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="27"/>
+      <c r="B287" s="24">
+        <v>11</v>
+      </c>
+      <c r="C287" s="24" t="s">
+        <v>568</v>
+      </c>
+      <c r="D287" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="E287" s="41"/>
+      <c r="F287" s="29"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="27"/>
+      <c r="B288" s="24">
+        <v>12</v>
+      </c>
+      <c r="C288" s="24" t="s">
+        <v>569</v>
+      </c>
+      <c r="D288" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="E288" s="41"/>
+      <c r="F288" s="29"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="27"/>
+      <c r="B289" s="24">
+        <v>13</v>
+      </c>
+      <c r="C289" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="D289" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E289" s="41"/>
+      <c r="F289" s="29"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="27"/>
+      <c r="B290" s="24">
+        <v>14</v>
+      </c>
+      <c r="C290" s="24" t="s">
+        <v>571</v>
+      </c>
+      <c r="D290" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="E290" s="41"/>
+      <c r="F290" s="29"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="27"/>
+      <c r="B291" s="24">
+        <v>15</v>
+      </c>
+      <c r="C291" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="D291" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="E291" s="41"/>
+      <c r="F291" s="29"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="27"/>
+      <c r="B292" s="24">
+        <v>16</v>
+      </c>
+      <c r="C292" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="D292" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="E292" s="41"/>
+      <c r="F292" s="29"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="27"/>
+      <c r="B293" s="24">
+        <v>17</v>
+      </c>
+      <c r="C293" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="D293" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="E293" s="41"/>
+      <c r="F293" s="29"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="27"/>
+      <c r="B294" s="24">
+        <v>18</v>
+      </c>
+      <c r="C294" s="24" t="s">
+        <v>575</v>
+      </c>
+      <c r="D294" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="E294" s="41"/>
+      <c r="F294" s="29"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="27"/>
+      <c r="B295" s="24">
+        <v>19</v>
+      </c>
+      <c r="C295" s="24" t="s">
+        <v>576</v>
+      </c>
+      <c r="D295" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="E295" s="41"/>
+      <c r="F295" s="29"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="27"/>
+      <c r="B296" s="24">
+        <v>20</v>
+      </c>
+      <c r="C296" s="24" t="s">
+        <v>577</v>
+      </c>
+      <c r="D296" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E296" s="41"/>
+      <c r="F296" s="29"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="27"/>
+      <c r="B297" s="24">
+        <v>21</v>
+      </c>
+      <c r="C297" s="24" t="s">
+        <v>578</v>
+      </c>
+      <c r="D297" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="E297" s="41"/>
+      <c r="F297" s="29"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="27"/>
+      <c r="B298" s="24">
+        <v>22</v>
+      </c>
+      <c r="C298" s="24" t="s">
+        <v>579</v>
+      </c>
+      <c r="D298" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="E298" s="41"/>
+      <c r="F298" s="29"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="27"/>
+      <c r="B299" s="24">
+        <v>23</v>
+      </c>
+      <c r="C299" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="D299" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="E299" s="41"/>
+      <c r="F299" s="29"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="27"/>
+      <c r="B300" s="24">
+        <v>24</v>
+      </c>
+      <c r="C300" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D300" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="E300" s="41"/>
+      <c r="F300" s="29"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="27"/>
+      <c r="B301" s="24">
+        <v>25</v>
+      </c>
+      <c r="C301" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="D301" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="E301" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F301" s="29"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="27"/>
+      <c r="B302" s="24">
+        <v>26</v>
+      </c>
+      <c r="C302" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="D302" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="E302" s="41"/>
+      <c r="F302" s="29"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="27"/>
+      <c r="B303" s="24">
+        <v>27</v>
+      </c>
+      <c r="C303" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="D303" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="E303" s="41"/>
+      <c r="F303" s="29"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="27"/>
+      <c r="B304" s="24">
+        <v>28</v>
+      </c>
+      <c r="C304" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="D304" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="E304" s="41"/>
+      <c r="F304" s="29"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="27"/>
+      <c r="B305" s="24">
+        <v>29</v>
+      </c>
+      <c r="C305" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="D305" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="E305" s="41"/>
+      <c r="F305" s="29"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="27"/>
+      <c r="B306" s="24">
+        <v>30</v>
+      </c>
+      <c r="C306" s="24" t="s">
+        <v>613</v>
+      </c>
+      <c r="D306" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="E306" s="41"/>
+      <c r="F306" s="29"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="27"/>
+      <c r="B307" s="24">
+        <v>31</v>
+      </c>
+      <c r="C307" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="D307" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="E307" s="41"/>
+      <c r="F307" s="29"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="27"/>
+      <c r="B308" s="24">
+        <v>32</v>
+      </c>
+      <c r="C308" s="24" t="s">
+        <v>615</v>
+      </c>
+      <c r="D308" s="24" t="s">
+        <v>625</v>
+      </c>
+      <c r="E308" s="41"/>
+      <c r="F308" s="29"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="27"/>
+      <c r="B309" s="24">
+        <v>33</v>
+      </c>
+      <c r="C309" s="24" t="s">
+        <v>616</v>
+      </c>
+      <c r="D309" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="E309" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F309" s="29"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="27"/>
+      <c r="B310" s="24">
+        <v>34</v>
+      </c>
+      <c r="C310" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="D310" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="E310" s="41"/>
+      <c r="F310" s="29"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="27"/>
+      <c r="B311" s="24">
+        <v>35</v>
+      </c>
+      <c r="C311" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="D311" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="E311" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F311" s="29"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="27"/>
+      <c r="B312" s="24">
+        <v>36</v>
+      </c>
+      <c r="C312" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="D312" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="E312" s="41"/>
+      <c r="F312" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F163" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="A239:A276"/>
+    <mergeCell ref="A277:A312"/>
+    <mergeCell ref="F239:F312"/>
+    <mergeCell ref="A164:A204"/>
+    <mergeCell ref="A205:A238"/>
+    <mergeCell ref="F164:F238"/>
     <mergeCell ref="A2:A40"/>
     <mergeCell ref="A41:A81"/>
     <mergeCell ref="A82:A124"/>
